--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\FINAL 450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0892E0F8-4BE5-4A42-AB49-F63430039FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD5C02-1682-4B95-B08B-C7F63A30A51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D372" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5967,8 +5967,8 @@
       <c r="B372" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C372" s="4" t="s">
-        <v>4</v>
+      <c r="C372" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\FINAL 450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD5C02-1682-4B95-B08B-C7F63A30A51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606BF89-E6F9-45CA-ACD5-556F3E6FF32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D372" sqref="D372"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5978,8 +5978,8 @@
       <c r="B373" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C373" s="4" t="s">
-        <v>4</v>
+      <c r="C373" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606BF89-E6F9-45CA-ACD5-556F3E6FF32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E44456-D9FA-4234-9C89-0688A11172D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A365" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5989,8 +5989,8 @@
       <c r="B374" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C374" s="4" t="s">
-        <v>4</v>
+      <c r="C374" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E44456-D9FA-4234-9C89-0688A11172D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F9197-33CD-428F-AD05-CC4CC89C94B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A365" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375"/>
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6000,8 +6000,8 @@
       <c r="B375" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C375" s="4" t="s">
-        <v>4</v>
+      <c r="C375" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F9197-33CD-428F-AD05-CC4CC89C94B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739515F-6277-422C-BAFE-53A0F303450D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739515F-6277-422C-BAFE-53A0F303450D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D1631-F98E-4F28-9DE0-CC062F4EC06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2015,7 +2015,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A365" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C376" sqref="C376"/>
+      <selection activeCell="B376" sqref="B376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6011,8 +6011,8 @@
       <c r="B376" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C376" s="4" t="s">
-        <v>4</v>
+      <c r="C376" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D1631-F98E-4F28-9DE0-CC062F4EC06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4426A472-AF62-43A0-9AC1-7D099AE16D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1564,7 +1564,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1645,7 +1651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,6 +1701,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2014,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B376" sqref="B376"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6022,8 +6031,8 @@
       <c r="B377" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C377" s="4" t="s">
-        <v>4</v>
+      <c r="C377" s="21" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4426A472-AF62-43A0-9AC1-7D099AE16D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA37914-DE07-467E-B0C5-50382C26E21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C378" sqref="C378"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6064,8 +6064,8 @@
       <c r="B380" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C380" s="4" t="s">
-        <v>4</v>
+      <c r="C380" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA37914-DE07-467E-B0C5-50382C26E21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6FBEE-F1CC-4F02-AB8D-1144A08ABA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6075,8 +6075,8 @@
       <c r="B381" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C381" s="4" t="s">
-        <v>4</v>
+      <c r="C381" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6FBEE-F1CC-4F02-AB8D-1144A08ABA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527DEF58-A410-4A17-AB9B-D486427B9AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B381" sqref="B381"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6086,8 +6086,8 @@
       <c r="B382" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C382" s="4" t="s">
-        <v>4</v>
+      <c r="C382" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527DEF58-A410-4A17-AB9B-D486427B9AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C6244-C634-4AB0-A53F-EFBA9BB7356E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C383" sqref="C383"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6097,8 +6097,8 @@
       <c r="B383" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C383" s="4" t="s">
-        <v>4</v>
+      <c r="C383" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C6244-C634-4AB0-A53F-EFBA9BB7356E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C3631-1D00-45C7-8551-7ACA9F26BA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="491">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1495,6 +1495,9 @@
   </si>
   <si>
     <t>Sliding Window Maximum (Maximum of all subarrays of size k)</t>
+  </si>
+  <si>
+    <t>Sum of all leaf nodes of binary tree</t>
   </si>
 </sst>
 </file>
@@ -2021,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C384" sqref="C384"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3974,7 +3977,7 @@
         <v>171</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>464</v>
@@ -3985,7 +3988,7 @@
         <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>464</v>
@@ -3996,7 +3999,7 @@
         <v>171</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>464</v>
@@ -4007,7 +4010,7 @@
         <v>171</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>464</v>
@@ -4018,7 +4021,7 @@
         <v>171</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>464</v>
@@ -4029,7 +4032,7 @@
         <v>171</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>464</v>
@@ -4040,7 +4043,7 @@
         <v>171</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>464</v>
@@ -4051,7 +4054,7 @@
         <v>171</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>464</v>
@@ -4062,10 +4065,10 @@
         <v>171</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
@@ -4073,10 +4076,10 @@
         <v>171</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>464</v>
+        <v>188</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
@@ -4084,7 +4087,7 @@
         <v>171</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>464</v>
@@ -4095,7 +4098,7 @@
         <v>171</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>464</v>
@@ -4106,10 +4109,10 @@
         <v>171</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
@@ -4117,10 +4120,10 @@
         <v>171</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>464</v>
+        <v>192</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -4128,7 +4131,7 @@
         <v>171</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>464</v>
@@ -4139,7 +4142,7 @@
         <v>171</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>464</v>
@@ -4150,10 +4153,10 @@
         <v>171</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>195</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -4161,10 +4164,10 @@
         <v>171</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>464</v>
+        <v>196</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -4172,10 +4175,10 @@
         <v>171</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>197</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -4183,10 +4186,10 @@
         <v>171</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>464</v>
+        <v>198</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4194,10 +4197,10 @@
         <v>171</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>199</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
@@ -4205,9 +4208,9 @@
         <v>171</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C206" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C206" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4216,10 +4219,10 @@
         <v>171</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>464</v>
+        <v>201</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4227,7 +4230,7 @@
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>464</v>
@@ -4238,10 +4241,10 @@
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>203</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4249,7 +4252,7 @@
         <v>171</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4260,10 +4263,10 @@
         <v>171</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>464</v>
+        <v>205</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
@@ -4271,7 +4274,7 @@
         <v>171</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>470</v>
+        <v>206</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>464</v>
@@ -4282,7 +4285,7 @@
         <v>171</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>464</v>
@@ -4293,7 +4296,7 @@
         <v>171</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>464</v>
@@ -4304,7 +4307,7 @@
         <v>171</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>464</v>
@@ -4315,34 +4318,34 @@
         <v>171</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="21">
+      <c r="A217" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C216" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="8"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="4"/>
-    </row>
-    <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="C217" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="21">
+      <c r="A218" s="8"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>464</v>
@@ -4353,7 +4356,7 @@
         <v>207</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>464</v>
@@ -4364,7 +4367,7 @@
         <v>207</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>464</v>
@@ -4375,7 +4378,7 @@
         <v>207</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>464</v>
@@ -4386,7 +4389,7 @@
         <v>207</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>464</v>
@@ -4396,8 +4399,8 @@
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>214</v>
+      <c r="B225" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>464</v>
@@ -4407,8 +4410,8 @@
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>473</v>
+      <c r="B226" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>464</v>
@@ -4419,13 +4422,10 @@
         <v>207</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>215</v>
+        <v>473</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D227" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="21">
@@ -4433,10 +4433,13 @@
         <v>207</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>464</v>
+      </c>
+      <c r="D228" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="21">
@@ -4444,7 +4447,7 @@
         <v>207</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>464</v>
@@ -4455,13 +4458,10 @@
         <v>207</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D230" t="s">
-        <v>479</v>
+        <v>217</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="21">
@@ -4469,13 +4469,13 @@
         <v>207</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C231" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C231" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D231" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="21">
@@ -4483,13 +4483,13 @@
         <v>207</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>464</v>
       </c>
       <c r="D232" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="21">
@@ -4497,13 +4497,13 @@
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>464</v>
       </c>
       <c r="D233" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="21">
@@ -4511,13 +4511,13 @@
         <v>207</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>481</v>
+        <v>221</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>464</v>
       </c>
       <c r="D234" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="21">
@@ -4525,13 +4525,13 @@
         <v>207</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C235" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C235" s="11" t="s">
         <v>464</v>
       </c>
       <c r="D235" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="21">
@@ -4539,10 +4539,13 @@
         <v>207</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>464</v>
+        <v>222</v>
+      </c>
+      <c r="C236" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D236" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="21">
@@ -4550,7 +4553,7 @@
         <v>207</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>464</v>
@@ -4561,10 +4564,10 @@
         <v>207</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>4</v>
+        <v>224</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="21">
@@ -4572,10 +4575,10 @@
         <v>207</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>464</v>
+        <v>225</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="21">
@@ -4583,7 +4586,7 @@
         <v>207</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>464</v>
@@ -4594,7 +4597,7 @@
         <v>207</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>226</v>
+        <v>484</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>464</v>
@@ -4605,7 +4608,7 @@
         <v>207</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>464</v>
@@ -4616,37 +4619,37 @@
         <v>207</v>
       </c>
       <c r="B243" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="21">
+      <c r="A244" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C243" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21">
-      <c r="B244" s="7"/>
-      <c r="C244" s="4"/>
+      <c r="C244" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="B245" s="7"/>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="1:3" ht="21">
-      <c r="A246" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4657,7 +4660,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4668,7 +4671,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4679,7 +4682,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4690,7 +4693,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4701,7 +4704,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4712,7 +4715,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4723,7 +4726,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4734,7 +4737,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4745,7 +4748,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4756,7 +4759,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4767,7 +4770,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4778,7 +4781,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4789,7 +4792,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4800,7 +4803,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4811,7 +4814,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4822,7 +4825,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4833,7 +4836,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4844,7 +4847,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4855,7 +4858,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4866,7 +4869,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4877,7 +4880,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4888,7 +4891,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4899,7 +4902,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4910,7 +4913,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4921,7 +4924,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4932,7 +4935,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>4</v>
@@ -4943,7 +4946,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>4</v>
@@ -4954,7 +4957,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4965,7 +4968,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4976,7 +4979,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4987,7 +4990,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4998,7 +5001,7 @@
         <v>229</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -5009,37 +5012,37 @@
         <v>229</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="21">
+      <c r="A281" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
-      <c r="B281" s="7"/>
-      <c r="C281" s="4"/>
+      <c r="C281" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="B282" s="7"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" spans="1:3" ht="21">
-      <c r="A283" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B283" s="7"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -5050,7 +5053,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -5061,7 +5064,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -5072,7 +5075,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -5083,7 +5086,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -5094,7 +5097,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -5105,7 +5108,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -5116,7 +5119,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -5127,7 +5130,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -5138,7 +5141,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -5149,7 +5152,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>4</v>
@@ -5160,7 +5163,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>4</v>
@@ -5171,7 +5174,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -5182,7 +5185,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -5193,7 +5196,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5204,7 +5207,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5215,7 +5218,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5226,37 +5229,37 @@
         <v>264</v>
       </c>
       <c r="B301" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="21">
+      <c r="A302" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21">
-      <c r="B302" s="7"/>
-      <c r="C302" s="4"/>
+      <c r="C302" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="B303" s="7"/>
       <c r="C303" s="4"/>
     </row>
     <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B304" s="7"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>464</v>
@@ -5267,7 +5270,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>464</v>
@@ -5278,7 +5281,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>464</v>
@@ -5289,10 +5292,10 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>4</v>
+        <v>288</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="21">
@@ -5300,10 +5303,10 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C309" s="11" t="s">
-        <v>464</v>
+        <v>289</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="21">
@@ -5311,7 +5314,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>464</v>
@@ -5322,7 +5325,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>464</v>
@@ -5333,7 +5336,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>464</v>
@@ -5344,13 +5347,10 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D313" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="21">
@@ -5358,10 +5358,13 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>464</v>
+      </c>
+      <c r="D314" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="21">
@@ -5369,7 +5372,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>464</v>
@@ -5380,7 +5383,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>464</v>
@@ -5390,8 +5393,8 @@
       <c r="A317" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="9" t="s">
-        <v>298</v>
+      <c r="B317" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>464</v>
@@ -5401,8 +5404,8 @@
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="6" t="s">
-        <v>299</v>
+      <c r="B318" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>464</v>
@@ -5413,7 +5416,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>464</v>
@@ -5424,13 +5427,10 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C320" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D320" t="s">
-        <v>476</v>
+        <v>300</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="21">
@@ -5438,10 +5438,13 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C321" s="19" t="s">
         <v>464</v>
+      </c>
+      <c r="D321" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="21">
@@ -5449,9 +5452,9 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C322" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C322" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5460,7 +5463,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>464</v>
@@ -5471,7 +5474,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>464</v>
@@ -5482,7 +5485,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>464</v>
@@ -5493,7 +5496,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>464</v>
@@ -5504,7 +5507,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>464</v>
@@ -5515,7 +5518,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>464</v>
@@ -5526,10 +5529,10 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="21">
@@ -5537,10 +5540,10 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C330" s="11" t="s">
-        <v>464</v>
+        <v>308</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
@@ -5548,9 +5551,9 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C331" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C331" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5559,9 +5562,9 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C332" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C332" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5570,7 +5573,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>464</v>
@@ -5581,7 +5584,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>464</v>
@@ -5592,13 +5595,10 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C335" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D335" t="s">
-        <v>488</v>
+        <v>313</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="21">
@@ -5606,10 +5606,13 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C336" s="19" t="s">
         <v>464</v>
+      </c>
+      <c r="D336" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
@@ -5617,10 +5620,10 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>4</v>
+        <v>315</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
@@ -5628,10 +5631,10 @@
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C338" s="19" t="s">
-        <v>464</v>
+        <v>316</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
@@ -5639,7 +5642,7 @@
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="C339" s="19" t="s">
         <v>464</v>
@@ -5650,7 +5653,7 @@
         <v>284</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C340" s="19" t="s">
         <v>464</v>
@@ -5661,7 +5664,7 @@
         <v>284</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C341" s="19" t="s">
         <v>464</v>
@@ -5672,7 +5675,7 @@
         <v>284</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C342" s="19" t="s">
         <v>464</v>
@@ -5683,7 +5686,7 @@
         <v>284</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="19" t="s">
         <v>464</v>
@@ -5694,37 +5697,37 @@
         <v>284</v>
       </c>
       <c r="B344" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="21">
+      <c r="A345" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="21">
-      <c r="B345" s="7"/>
-      <c r="C345" s="4"/>
+      <c r="C345" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="B346" s="7"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B347" s="7"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>464</v>
@@ -5735,7 +5738,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>464</v>
@@ -5746,7 +5749,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>464</v>
@@ -5757,7 +5760,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>464</v>
@@ -5768,9 +5771,9 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C352" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C352" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5779,9 +5782,9 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C353" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C353" s="20" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5790,7 +5793,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>464</v>
@@ -5800,8 +5803,8 @@
       <c r="A355" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>332</v>
+      <c r="B355" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>464</v>
@@ -5811,8 +5814,8 @@
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>333</v>
+      <c r="B356" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>464</v>
@@ -5823,10 +5826,10 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>333</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5834,7 +5837,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5845,10 +5848,10 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>464</v>
+        <v>335</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5856,10 +5859,10 @@
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5867,10 +5870,10 @@
         <v>323</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>464</v>
+        <v>337</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5878,7 +5881,7 @@
         <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>464</v>
@@ -5889,7 +5892,7 @@
         <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>464</v>
@@ -5900,37 +5903,37 @@
         <v>323</v>
       </c>
       <c r="B364" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="21">
+      <c r="A365" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B365" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C364" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="21">
-      <c r="B365" s="7"/>
-      <c r="C365" s="4"/>
+      <c r="C365" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="B366" s="7"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C367" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B367" s="7"/>
+      <c r="C367" s="4"/>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>464</v>
@@ -5941,7 +5944,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>464</v>
@@ -5952,7 +5955,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>464</v>
@@ -5963,7 +5966,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>464</v>
@@ -5974,7 +5977,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>464</v>
@@ -5985,7 +5988,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>464</v>
@@ -5996,7 +5999,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>464</v>
@@ -6007,7 +6010,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>464</v>
@@ -6018,7 +6021,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>464</v>
@@ -6029,9 +6032,9 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C377" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C377" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6040,9 +6043,9 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C378" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C378" s="21" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6051,7 +6054,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>464</v>
@@ -6062,7 +6065,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>464</v>
@@ -6073,7 +6076,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>464</v>
@@ -6084,7 +6087,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>464</v>
@@ -6095,7 +6098,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>464</v>
@@ -6106,7 +6109,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>464</v>
@@ -6117,7 +6120,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>464</v>
@@ -6128,10 +6131,10 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>4</v>
+        <v>361</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
@@ -6139,10 +6142,10 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C387" s="11" t="s">
-        <v>464</v>
+        <v>362</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
@@ -6150,7 +6153,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>464</v>
@@ -6161,10 +6164,10 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>4</v>
+        <v>364</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
@@ -6172,7 +6175,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -6183,7 +6186,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6194,7 +6197,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6205,7 +6208,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6216,7 +6219,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6227,7 +6230,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6238,7 +6241,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6249,7 +6252,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6260,7 +6263,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6271,7 +6274,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6282,7 +6285,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>4</v>
@@ -6304,7 +6307,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6315,7 +6318,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6326,7 +6329,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6337,7 +6340,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6348,7 +6351,7 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6359,7 +6362,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6370,7 +6373,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
@@ -6381,7 +6384,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>4</v>
@@ -6392,37 +6395,37 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="21">
+      <c r="A411" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B411" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="21">
-      <c r="B411" s="7"/>
-      <c r="C411" s="4"/>
+      <c r="C411" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="B412" s="7"/>
       <c r="C412" s="4"/>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B413" s="7"/>
+      <c r="C413" s="4"/>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6433,7 +6436,7 @@
         <v>386</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6444,7 +6447,7 @@
         <v>386</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6455,7 +6458,7 @@
         <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6466,37 +6469,37 @@
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="21">
+      <c r="A419" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B419" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
-      <c r="B419" s="7"/>
-      <c r="C419" s="4"/>
+      <c r="C419" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="B420" s="7"/>
       <c r="C420" s="4"/>
     </row>
     <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B421" s="7"/>
+      <c r="C421" s="4"/>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6507,7 +6510,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6518,7 +6521,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6529,7 +6532,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6540,7 +6543,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6551,7 +6554,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6562,7 +6565,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6573,7 +6576,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6584,7 +6587,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6595,7 +6598,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6606,7 +6609,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6617,7 +6620,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6628,7 +6631,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6639,7 +6642,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6650,7 +6653,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6661,7 +6664,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6672,7 +6675,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6683,7 +6686,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6694,7 +6697,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6705,7 +6708,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6716,7 +6719,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6727,7 +6730,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6738,7 +6741,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6749,7 +6752,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6760,7 +6763,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6771,7 +6774,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6782,7 +6785,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6793,7 +6796,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6804,7 +6807,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6815,7 +6818,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6826,7 +6829,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6837,7 +6840,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6848,7 +6851,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6859,7 +6862,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6870,7 +6873,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6881,7 +6884,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6892,7 +6895,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6903,7 +6906,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6914,7 +6917,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6925,7 +6928,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6936,7 +6939,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6947,7 +6950,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6958,7 +6961,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6969,7 +6972,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6980,7 +6983,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6991,7 +6994,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7002,7 +7005,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7013,7 +7016,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7024,7 +7027,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7035,7 +7038,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7046,7 +7049,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7057,7 +7060,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7068,7 +7071,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7079,7 +7082,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7090,7 +7093,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7101,7 +7104,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7112,7 +7115,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7123,7 +7126,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7134,38 +7137,38 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="21">
+      <c r="A481" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B481" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
-      <c r="B481" s="7"/>
-      <c r="C481" s="4"/>
+      <c r="C481" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="482" spans="1:3" ht="21">
-      <c r="A482" s="8"/>
       <c r="B482" s="7"/>
       <c r="C482" s="4"/>
     </row>
     <row r="483" spans="1:3" ht="21">
-      <c r="A483" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A483" s="8"/>
+      <c r="B483" s="7"/>
+      <c r="C483" s="4"/>
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7176,7 +7179,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7187,7 +7190,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7198,7 +7201,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7209,7 +7212,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7220,7 +7223,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7231,7 +7234,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7242,7 +7245,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7253,9 +7256,20 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="21">
+      <c r="A493" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B493" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C492" s="4" t="s">
+      <c r="C493" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7426,300 +7440,301 @@
     <hyperlink ref="B182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
     <hyperlink ref="B183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
     <hyperlink ref="B184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B219" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B220" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B221" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B222" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B223" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B224" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B225" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B227" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B229" r:id="rId201" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B230" r:id="rId202" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B231" r:id="rId203" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B232" r:id="rId204" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B233" r:id="rId205" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B235" r:id="rId206" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B240" r:id="rId210" display="Check preorder is valid or not" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B241" r:id="rId211" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B242" r:id="rId212" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B243" r:id="rId213" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B246" r:id="rId214" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B247" r:id="rId215" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B248" r:id="rId216" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B249" r:id="rId217" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B250" r:id="rId218" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B251" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B252" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B253" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B254" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B255" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B256" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B257" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B258" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B259" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B260" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B261" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B262" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B263" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B264" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B265" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B266" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B267" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B268" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B269" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B270" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B271" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B272" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B273" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B274" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B275" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B276" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B277" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B278" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B279" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B280" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B283" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B284" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B285" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B286" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B287" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B288" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B289" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B290" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B291" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B292" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B293" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B294" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B295" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B296" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B297" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B298" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B299" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B300" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B301" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B304" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B305" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B306" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B307" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B308" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B309" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B310" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B311" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B312" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B313" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B314" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B315" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B316" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B317" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B318" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B319" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B320" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B321" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B323" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B324" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B325" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B327" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B328" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B329" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B330" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B331" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B332" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B333" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B334" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B335" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B336" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B337" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B339" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B340" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B341" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B342" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B343" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B344" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B347" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B348" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B349" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B350" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B351" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B352" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B353" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B354" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B355" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B356" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B357" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B358" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B359" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B360" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B361" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B362" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B363" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B364" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B368" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B369" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B370" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B371" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B372" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B373" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B374" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B375" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B376" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B377" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B378" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B379" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B380" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B381" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B382" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B383" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B384" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B385" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B386" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B387" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B388" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B389" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B390" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B391" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B392" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B393" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B394" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B395" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B396" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B397" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B398" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B399" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B400" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B401" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B402" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B403" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B404" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B405" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B407" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B406" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B408" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B409" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B410" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B413" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B414" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B415" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B416" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B417" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B418" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B421" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B422" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B423" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B424" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B425" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B426" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B427" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B428" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B429" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B430" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B431" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B432" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B433" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B434" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B435" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B436" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B437" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B438" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B439" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B440" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B441" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B442" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B443" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B444" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B445" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B446" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B447" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B448" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B449" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B450" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B451" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B452" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B453" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B454" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B455" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B456" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B457" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B458" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B459" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B462" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B461" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B463" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B464" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B465" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B466" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B467" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B468" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B469" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B470" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B471" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B472" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B473" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B480" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B479" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B478" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B477" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B476" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B475" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B474" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B483" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B484" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B485" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B486" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B487" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B488" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B489" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B492" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B490" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B491" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B367" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B186" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B187" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B188" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B189" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B190" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B191" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B192" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B193" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B194" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B195" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B196" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B197" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B198" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B199" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B200" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B201" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B202" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B203" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B204" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B205" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B206" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B207" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B208" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B209" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B210" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B211" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B212" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B220" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B221" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B222" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B223" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B224" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B225" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B226" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B228" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B236" r:id="rId206" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B237" r:id="rId207" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B238" r:id="rId208" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B239" r:id="rId209" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B241" r:id="rId210" display="Check preorder is valid or not" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B242" r:id="rId211" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B243" r:id="rId212" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B244" r:id="rId213" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B247" r:id="rId214" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B248" r:id="rId215" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B249" r:id="rId216" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B250" r:id="rId217" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B251" r:id="rId218" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B252" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B253" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B254" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B255" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B256" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B257" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B259" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B260" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B261" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B262" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B263" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B264" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B265" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B266" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B267" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B268" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B269" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B270" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B271" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B272" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B273" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B274" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B275" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B276" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B277" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B278" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B279" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B280" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B281" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B284" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B285" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B286" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B287" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B288" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B289" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B290" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B291" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B292" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B293" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B294" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B295" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B296" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B297" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B298" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B299" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B300" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B301" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B302" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B305" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B306" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B307" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B308" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B309" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B310" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B311" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B312" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B313" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B314" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B315" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B316" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B317" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B318" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B319" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B320" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B321" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B322" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B324" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B325" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B326" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B328" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B329" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B330" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B331" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B332" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B333" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B334" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B335" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B336" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B337" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B338" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B340" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B341" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B342" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B343" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B344" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B345" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B348" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B349" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B350" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B351" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B352" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B353" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B354" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B355" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B356" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B357" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B358" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B359" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B360" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B361" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B362" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B363" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B364" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B365" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B369" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B370" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B371" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B372" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B373" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B374" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B375" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B376" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B377" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B378" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B379" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B380" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B381" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B382" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B383" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B384" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B385" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B386" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B387" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B388" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B389" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B390" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B391" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B392" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B393" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B394" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B395" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B396" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B397" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B398" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B399" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B400" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B401" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B402" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B403" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B404" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B405" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B406" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B408" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B407" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B409" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B410" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B411" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B414" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B415" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B416" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B417" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B418" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B419" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B422" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B423" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B424" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B425" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B426" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B427" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B428" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B429" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B430" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B431" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B432" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B433" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B434" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B435" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B436" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B437" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B438" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B439" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B440" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B441" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B442" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B443" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B444" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B445" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B446" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B447" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B448" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B449" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B450" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B451" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B452" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B453" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B454" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B455" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B456" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B457" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B458" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B459" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B460" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B461" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B463" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B462" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B464" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B465" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B466" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B467" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B468" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B469" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B470" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B471" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B472" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B473" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B474" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B481" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B480" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B479" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B478" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B477" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B476" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B475" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B484" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B485" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B486" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B487" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B488" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B489" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B490" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B493" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B491" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B492" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B368" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B212" r:id="rId446" xr:uid="{DF4E5319-F59D-4C13-8A23-3E041980DFAF}"/>
-    <hyperlink ref="B213" r:id="rId447" xr:uid="{9F05179E-6AF0-4A31-978C-9E752F36E07C}"/>
-    <hyperlink ref="B214" r:id="rId448" xr:uid="{8F5FB9DA-1DC2-48B4-87CB-8ABBC79D83E9}"/>
-    <hyperlink ref="B226" r:id="rId449" xr:uid="{2D8BFAA4-B34F-4FB8-B291-FD563F1AC8F3}"/>
-    <hyperlink ref="B215" r:id="rId450" xr:uid="{EBDA23E1-8B07-4F59-8BAA-B9E4D938AA5A}"/>
-    <hyperlink ref="B216" r:id="rId451" xr:uid="{53511E6C-1978-47E0-AAFD-9D5B7E5A7257}"/>
-    <hyperlink ref="B228" r:id="rId452" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B234" r:id="rId453" xr:uid="{A4AF231A-1112-4F03-9A28-AF0D0CA49382}"/>
-    <hyperlink ref="B239" r:id="rId454" xr:uid="{26AF757B-5F3D-434C-B27B-0125960904B5}"/>
-    <hyperlink ref="B322" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
-    <hyperlink ref="B326" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
-    <hyperlink ref="B338" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
+    <hyperlink ref="B213" r:id="rId446" xr:uid="{DF4E5319-F59D-4C13-8A23-3E041980DFAF}"/>
+    <hyperlink ref="B214" r:id="rId447" xr:uid="{9F05179E-6AF0-4A31-978C-9E752F36E07C}"/>
+    <hyperlink ref="B215" r:id="rId448" xr:uid="{8F5FB9DA-1DC2-48B4-87CB-8ABBC79D83E9}"/>
+    <hyperlink ref="B227" r:id="rId449" xr:uid="{2D8BFAA4-B34F-4FB8-B291-FD563F1AC8F3}"/>
+    <hyperlink ref="B216" r:id="rId450" xr:uid="{EBDA23E1-8B07-4F59-8BAA-B9E4D938AA5A}"/>
+    <hyperlink ref="B217" r:id="rId451" xr:uid="{53511E6C-1978-47E0-AAFD-9D5B7E5A7257}"/>
+    <hyperlink ref="B229" r:id="rId452" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B235" r:id="rId453" xr:uid="{A4AF231A-1112-4F03-9A28-AF0D0CA49382}"/>
+    <hyperlink ref="B240" r:id="rId454" xr:uid="{26AF757B-5F3D-434C-B27B-0125960904B5}"/>
+    <hyperlink ref="B323" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
+    <hyperlink ref="B327" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
+    <hyperlink ref="B339" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
+    <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId458"/>
+  <pageSetup orientation="portrait" r:id="rId459"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C3631-1D00-45C7-8551-7ACA9F26BA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9464A-2088-4E90-8E2A-AD9B8C1895FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="492">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>Sum of all leaf nodes of binary tree</t>
+  </si>
+  <si>
+    <t>Bipartite Graph</t>
   </si>
 </sst>
 </file>
@@ -2024,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6186,10 +6189,10 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
+        <v>491</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
@@ -6197,10 +6200,10 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
@@ -6208,7 +6211,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6219,7 +6222,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6230,7 +6233,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6241,7 +6244,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6252,7 +6255,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6263,7 +6266,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6274,7 +6277,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6285,7 +6288,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>4</v>
@@ -6296,7 +6299,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>4</v>
@@ -6318,7 +6321,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6329,7 +6332,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6340,7 +6343,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6351,7 +6354,7 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6362,7 +6365,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6373,7 +6376,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
@@ -6384,7 +6387,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>4</v>
@@ -6395,7 +6398,7 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6406,37 +6409,37 @@
         <v>342</v>
       </c>
       <c r="B411" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="21">
+      <c r="A412" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B412" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
-      <c r="B412" s="7"/>
-      <c r="C412" s="4"/>
+      <c r="C412" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="B413" s="7"/>
       <c r="C413" s="4"/>
     </row>
     <row r="414" spans="1:3" ht="21">
-      <c r="A414" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B414" s="7"/>
+      <c r="C414" s="4"/>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6447,7 +6450,7 @@
         <v>386</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6458,7 +6461,7 @@
         <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6469,7 +6472,7 @@
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6480,37 +6483,37 @@
         <v>386</v>
       </c>
       <c r="B419" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="21">
+      <c r="A420" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B420" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
-      <c r="B420" s="7"/>
-      <c r="C420" s="4"/>
+      <c r="C420" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="B421" s="7"/>
       <c r="C421" s="4"/>
     </row>
     <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B422" s="7"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6521,7 +6524,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6532,7 +6535,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6543,7 +6546,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6554,7 +6557,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6565,7 +6568,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6576,7 +6579,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6587,7 +6590,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6598,7 +6601,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6609,7 +6612,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6620,7 +6623,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6631,7 +6634,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6642,7 +6645,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6653,7 +6656,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6664,7 +6667,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6675,7 +6678,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6686,7 +6689,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6697,7 +6700,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6708,7 +6711,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6719,7 +6722,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6730,7 +6733,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6741,7 +6744,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6752,7 +6755,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6763,7 +6766,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6774,7 +6777,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6785,7 +6788,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6796,7 +6799,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6807,7 +6810,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6818,7 +6821,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6829,7 +6832,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6840,7 +6843,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6851,7 +6854,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6862,7 +6865,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6873,7 +6876,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6884,7 +6887,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6895,7 +6898,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6906,7 +6909,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6917,7 +6920,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6928,7 +6931,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6939,7 +6942,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6950,7 +6953,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6961,7 +6964,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6972,7 +6975,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6983,7 +6986,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6994,7 +6997,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7005,7 +7008,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7016,7 +7019,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7027,7 +7030,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7038,7 +7041,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7049,7 +7052,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7060,7 +7063,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7071,7 +7074,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7082,7 +7085,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7093,7 +7096,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7104,7 +7107,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7115,7 +7118,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7126,7 +7129,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7137,7 +7140,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7148,38 +7151,38 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="21">
+      <c r="A482" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B482" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C481" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" ht="21">
-      <c r="B482" s="7"/>
-      <c r="C482" s="4"/>
+      <c r="C482" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="483" spans="1:3" ht="21">
-      <c r="A483" s="8"/>
       <c r="B483" s="7"/>
       <c r="C483" s="4"/>
     </row>
     <row r="484" spans="1:3" ht="21">
-      <c r="A484" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A484" s="8"/>
+      <c r="B484" s="7"/>
+      <c r="C484" s="4"/>
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7190,7 +7193,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7201,7 +7204,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7212,7 +7215,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7223,7 +7226,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7234,7 +7237,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7245,7 +7248,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7256,7 +7259,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7267,9 +7270,20 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="21">
+      <c r="A494" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B494" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C493" s="4" t="s">
+      <c r="C494" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7620,103 +7634,103 @@
     <hyperlink ref="B388" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
     <hyperlink ref="B389" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
     <hyperlink ref="B390" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B391" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B392" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B393" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B394" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B395" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B396" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B397" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B398" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B399" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B400" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B401" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B402" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B403" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B404" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B405" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B406" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B408" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B407" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B409" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B410" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B411" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B414" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B415" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B416" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B417" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B418" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B419" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B422" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B423" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B424" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B425" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B426" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B427" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B428" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B429" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B430" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B431" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B432" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B433" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B434" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B435" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B436" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B437" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B438" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B439" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B440" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B441" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B442" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B443" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B444" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B445" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B446" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B447" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B448" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B449" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B450" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B451" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B452" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B453" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B454" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B455" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B456" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B457" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B458" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B459" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B460" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B461" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B463" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B462" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B464" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B465" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B466" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B467" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B468" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B469" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B470" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B471" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B472" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B473" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B474" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B481" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B480" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B479" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B478" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B477" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B476" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B475" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B484" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B485" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B486" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B487" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B488" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B489" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B490" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B493" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B491" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B492" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B392" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B393" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B394" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B395" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B396" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B397" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B398" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B399" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B400" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B401" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B402" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B403" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B404" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B405" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B406" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B407" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B409" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B408" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B410" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B411" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B412" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B415" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B416" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B417" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B418" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B419" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B420" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B423" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B424" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B425" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B426" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B427" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B428" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B429" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B430" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B431" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B432" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B433" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B434" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B435" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B436" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B437" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B438" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B439" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B440" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B441" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B442" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B443" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B444" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B445" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B446" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B447" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B448" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B449" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B450" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B451" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B452" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B453" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B454" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B455" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B456" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B457" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B458" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B459" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B460" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B464" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B463" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B465" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B466" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B467" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B468" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B469" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B470" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B471" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B472" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B473" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B474" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B475" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B482" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B481" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B480" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B479" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B478" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B477" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B476" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B485" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B486" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B487" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B488" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B489" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B490" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B491" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B494" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B492" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B493" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B368" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7733,8 +7747,9 @@
     <hyperlink ref="B327" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
     <hyperlink ref="B339" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
     <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
+    <hyperlink ref="B391" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId459"/>
+  <pageSetup orientation="portrait" r:id="rId460"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9464A-2088-4E90-8E2A-AD9B8C1895FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A66F039-736B-4019-A5FD-315C5A239DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="493">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>Bipartite Graph</t>
+  </si>
+  <si>
+    <t>Possible Bipartition</t>
   </si>
 </sst>
 </file>
@@ -2027,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6200,7 +6203,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>464</v>
@@ -6211,10 +6214,10 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
@@ -6222,7 +6225,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6233,7 +6236,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6244,10 +6247,10 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
+        <v>369</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
@@ -6255,10 +6258,10 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
+        <v>370</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
@@ -6266,10 +6269,10 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>4</v>
+        <v>371</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
@@ -6277,7 +6280,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6288,7 +6291,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>4</v>
@@ -6299,7 +6302,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>4</v>
@@ -6310,7 +6313,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6332,7 +6335,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6343,7 +6346,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6354,10 +6357,10 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>4</v>
+        <v>378</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6365,7 +6368,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6376,7 +6379,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
@@ -6387,7 +6390,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>4</v>
@@ -6398,7 +6401,7 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6409,7 +6412,7 @@
         <v>342</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6420,37 +6423,37 @@
         <v>342</v>
       </c>
       <c r="B412" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="21">
+      <c r="A413" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B413" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
-      <c r="B413" s="7"/>
-      <c r="C413" s="4"/>
+      <c r="C413" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="B414" s="7"/>
       <c r="C414" s="4"/>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B415" s="7"/>
+      <c r="C415" s="4"/>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6461,7 +6464,7 @@
         <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6472,7 +6475,7 @@
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6483,7 +6486,7 @@
         <v>386</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6494,37 +6497,37 @@
         <v>386</v>
       </c>
       <c r="B420" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="21">
+      <c r="A421" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B421" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="21">
-      <c r="B421" s="7"/>
-      <c r="C421" s="4"/>
+      <c r="C421" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="B422" s="7"/>
       <c r="C422" s="4"/>
     </row>
     <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B423" s="7"/>
+      <c r="C423" s="4"/>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6535,7 +6538,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6546,7 +6549,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6557,7 +6560,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6568,7 +6571,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6579,7 +6582,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6590,7 +6593,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6601,7 +6604,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6612,7 +6615,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6623,7 +6626,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6634,7 +6637,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6645,7 +6648,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6656,7 +6659,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6667,7 +6670,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6678,7 +6681,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6689,7 +6692,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6700,7 +6703,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6711,7 +6714,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6722,7 +6725,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6733,7 +6736,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6744,7 +6747,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6755,7 +6758,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6766,7 +6769,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6777,7 +6780,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6788,7 +6791,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6799,7 +6802,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6810,7 +6813,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6821,7 +6824,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6832,7 +6835,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6843,7 +6846,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6854,7 +6857,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6865,7 +6868,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6876,7 +6879,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6887,7 +6890,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6898,7 +6901,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6909,7 +6912,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6920,7 +6923,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6931,7 +6934,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6942,7 +6945,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6953,7 +6956,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6964,7 +6967,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6975,7 +6978,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6986,7 +6989,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6997,7 +7000,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7008,7 +7011,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7019,7 +7022,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7030,7 +7033,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7041,7 +7044,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7052,7 +7055,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7063,7 +7066,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7074,7 +7077,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7085,7 +7088,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7096,7 +7099,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7107,7 +7110,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7118,7 +7121,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7129,7 +7132,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7140,7 +7143,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7151,7 +7154,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7162,38 +7165,38 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="21">
+      <c r="A483" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B483" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C482" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" ht="21">
-      <c r="B483" s="7"/>
-      <c r="C483" s="4"/>
+      <c r="C483" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="484" spans="1:3" ht="21">
-      <c r="A484" s="8"/>
       <c r="B484" s="7"/>
       <c r="C484" s="4"/>
     </row>
     <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C485" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A485" s="8"/>
+      <c r="B485" s="7"/>
+      <c r="C485" s="4"/>
     </row>
     <row r="486" spans="1:3" ht="21">
       <c r="A486" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7204,7 +7207,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7215,7 +7218,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7226,7 +7229,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7237,7 +7240,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7248,7 +7251,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7259,7 +7262,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7270,7 +7273,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7281,9 +7284,20 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" ht="21">
+      <c r="A495" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B495" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C494" s="4" t="s">
+      <c r="C495" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7634,103 +7648,103 @@
     <hyperlink ref="B388" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
     <hyperlink ref="B389" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
     <hyperlink ref="B390" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B392" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B393" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B394" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B395" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B396" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B397" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B398" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B399" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B400" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B401" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B402" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B403" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B404" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B405" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B406" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B407" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B409" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B408" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B410" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B411" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B412" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B415" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B416" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B417" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B418" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B419" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B420" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B423" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B424" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B425" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B426" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B427" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B428" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B429" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B430" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B431" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B432" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B433" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B434" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B435" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B436" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B437" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B438" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B439" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B440" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B441" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B442" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B443" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B444" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B445" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B446" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B447" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B448" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B449" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B450" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B451" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B452" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B453" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B454" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B455" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B456" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B457" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B458" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B459" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B460" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B461" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B462" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B464" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B463" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B465" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B466" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B467" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B468" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B469" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B470" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B471" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B472" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B473" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B474" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B475" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B482" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B481" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B480" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B479" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B478" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B477" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B476" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B485" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B486" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B487" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B488" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B489" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B490" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B491" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B494" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B492" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B493" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B393" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B394" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B395" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B396" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B397" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B398" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B399" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B400" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B401" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B402" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B403" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B404" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B405" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B406" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B407" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B408" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B410" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B409" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B411" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B412" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B413" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B416" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B417" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B418" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B419" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B420" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B421" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B424" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B425" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B426" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B427" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B428" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B429" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B430" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B431" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B432" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B433" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B434" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B435" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B436" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B437" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B438" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B439" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B440" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B441" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B442" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B443" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B444" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B445" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B446" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B447" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B448" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B449" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B450" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B451" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B452" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B453" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B454" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B455" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B456" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B457" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B458" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B459" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B460" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B461" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B462" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B463" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B465" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B464" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B466" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B467" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B468" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B469" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B470" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B471" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B472" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B473" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B474" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B475" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B476" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B483" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B482" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B481" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B480" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B479" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B478" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B477" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B486" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B487" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B488" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B489" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B490" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B491" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B492" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B495" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B493" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B494" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B368" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7748,8 +7762,9 @@
     <hyperlink ref="B339" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
     <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
     <hyperlink ref="B391" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
+    <hyperlink ref="B392" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId460"/>
+  <pageSetup orientation="portrait" r:id="rId461"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A66F039-736B-4019-A5FD-315C5A239DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E1B1C-1CD6-4E7F-9DE5-7A7031AAEE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1504,6 +1504,9 @@
   </si>
   <si>
     <t>Possible Bipartition</t>
+  </si>
+  <si>
+    <t>Shortest Path in Directed Acyclic Graph</t>
   </si>
 </sst>
 </file>
@@ -2030,9 +2033,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B399" sqref="B399"/>
     </sheetView>
   </sheetViews>
@@ -6280,10 +6283,10 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>4</v>
+        <v>493</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
@@ -6291,7 +6294,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>4</v>
@@ -6302,7 +6305,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>4</v>
@@ -6313,7 +6316,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6324,7 +6327,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6346,7 +6349,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6357,10 +6360,10 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C406" s="11" t="s">
-        <v>464</v>
+        <v>377</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6368,10 +6371,10 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>4</v>
+        <v>378</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
@@ -6379,7 +6382,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
@@ -6390,7 +6393,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>4</v>
@@ -6401,7 +6404,7 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6412,7 +6415,7 @@
         <v>342</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6423,7 +6426,7 @@
         <v>342</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6434,37 +6437,37 @@
         <v>342</v>
       </c>
       <c r="B413" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="21">
+      <c r="A414" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="21">
-      <c r="B414" s="7"/>
-      <c r="C414" s="4"/>
+      <c r="C414" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="B415" s="7"/>
       <c r="C415" s="4"/>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B416" s="7"/>
+      <c r="C416" s="4"/>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6475,7 +6478,7 @@
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6486,7 +6489,7 @@
         <v>386</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6497,7 +6500,7 @@
         <v>386</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6508,37 +6511,37 @@
         <v>386</v>
       </c>
       <c r="B421" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="21">
+      <c r="A422" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B422" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
-      <c r="B422" s="7"/>
-      <c r="C422" s="4"/>
+      <c r="C422" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="B423" s="7"/>
       <c r="C423" s="4"/>
     </row>
     <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B424" s="7"/>
+      <c r="C424" s="4"/>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6549,7 +6552,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6560,7 +6563,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6571,7 +6574,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6582,7 +6585,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6593,7 +6596,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6604,7 +6607,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6615,7 +6618,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6626,7 +6629,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6637,7 +6640,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6648,7 +6651,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6659,7 +6662,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6670,7 +6673,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6681,7 +6684,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6692,7 +6695,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6703,7 +6706,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6714,7 +6717,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6725,7 +6728,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6736,7 +6739,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6747,7 +6750,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6758,7 +6761,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6769,7 +6772,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6780,7 +6783,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6791,7 +6794,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6802,7 +6805,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6813,7 +6816,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6824,7 +6827,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6835,7 +6838,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6846,7 +6849,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6857,7 +6860,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6868,7 +6871,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6879,7 +6882,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6890,7 +6893,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6901,7 +6904,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6912,7 +6915,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6923,7 +6926,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6934,7 +6937,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6945,7 +6948,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6956,7 +6959,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6967,7 +6970,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6978,7 +6981,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6989,7 +6992,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7000,7 +7003,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7011,7 +7014,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7022,7 +7025,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7033,7 +7036,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7044,7 +7047,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7055,7 +7058,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7066,7 +7069,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7077,7 +7080,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7088,7 +7091,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7099,7 +7102,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7110,7 +7113,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7121,7 +7124,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7132,7 +7135,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7143,7 +7146,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7154,7 +7157,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7165,7 +7168,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7176,38 +7179,38 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="21">
+      <c r="A484" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B484" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C483" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" ht="21">
-      <c r="B484" s="7"/>
-      <c r="C484" s="4"/>
+      <c r="C484" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="8"/>
       <c r="B485" s="7"/>
       <c r="C485" s="4"/>
     </row>
     <row r="486" spans="1:3" ht="21">
-      <c r="A486" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A486" s="8"/>
+      <c r="B486" s="7"/>
+      <c r="C486" s="4"/>
     </row>
     <row r="487" spans="1:3" ht="21">
       <c r="A487" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7218,7 +7221,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7229,7 +7232,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7240,7 +7243,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7251,7 +7254,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7262,7 +7265,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7273,7 +7276,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7284,7 +7287,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7295,9 +7298,20 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="21">
+      <c r="A496" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B496" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C495" s="4" t="s">
+      <c r="C496" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7654,97 +7668,97 @@
     <hyperlink ref="B396" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
     <hyperlink ref="B397" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
     <hyperlink ref="B398" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B399" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B400" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B401" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B402" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B403" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B404" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B405" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B406" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B407" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B408" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B410" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B409" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B411" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B412" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B413" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B416" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B417" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B418" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B419" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B420" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B421" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B424" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B425" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B426" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B427" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B428" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B429" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B430" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B431" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B432" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B433" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B434" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B435" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B436" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B437" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B438" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B439" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B440" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B441" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B442" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B443" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B444" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B445" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B446" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B447" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B448" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B449" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B450" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B451" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B452" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B453" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B454" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B455" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B456" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B457" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B458" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B459" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B460" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B461" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B462" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B463" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B465" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B464" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B466" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B467" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B468" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B469" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B470" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B471" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B472" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B473" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B474" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B475" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B476" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B483" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B482" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B481" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B480" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B479" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B478" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B477" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B486" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B487" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B488" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B489" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B490" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B491" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B492" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B495" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B493" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B494" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B400" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B401" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B402" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B403" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B404" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B405" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B406" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B407" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B408" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B409" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B411" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B410" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B412" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B413" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B414" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B417" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B418" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B419" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B420" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B421" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B422" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B425" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B426" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B427" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B428" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B429" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B430" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B431" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B432" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B433" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B434" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B435" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B436" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B437" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B438" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B439" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B440" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B441" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B442" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B443" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B444" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B445" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B446" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B447" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B448" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B449" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B450" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B451" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B452" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B453" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B454" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B455" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B456" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B457" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B458" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B459" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B460" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B461" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B462" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B463" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B464" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B466" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B465" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B467" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B468" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B469" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B470" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B471" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B472" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B473" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B474" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B475" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B476" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B477" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B484" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B483" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B482" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B481" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B480" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B479" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B478" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B487" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B488" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B489" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B490" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B491" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B492" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B493" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B496" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B494" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B495" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B368" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7763,8 +7777,9 @@
     <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
     <hyperlink ref="B391" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
     <hyperlink ref="B392" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
+    <hyperlink ref="B399" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId461"/>
+  <pageSetup orientation="portrait" r:id="rId462"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E1B1C-1CD6-4E7F-9DE5-7A7031AAEE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C336B5B-8E94-47C7-B6DE-FCC8F7B1B099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2036,7 +2036,7 @@
   <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B399" sqref="B399"/>
+      <selection activeCell="B401" sqref="B401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6296,8 +6296,8 @@
       <c r="B400" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C400" s="4" t="s">
-        <v>4</v>
+      <c r="C400" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C336B5B-8E94-47C7-B6DE-FCC8F7B1B099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D335EF-58A9-4406-AF3B-687EB431E6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B401" sqref="B401"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B406" sqref="B406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6362,8 +6362,8 @@
       <c r="B406" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C406" s="4" t="s">
-        <v>4</v>
+      <c r="C406" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D335EF-58A9-4406-AF3B-687EB431E6A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53114897-172F-445E-83AF-EF214DB421C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B406" sqref="B406"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6384,8 +6384,8 @@
       <c r="B408" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C408" s="4" t="s">
-        <v>4</v>
+      <c r="C408" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53114897-172F-445E-83AF-EF214DB421C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A53DA6B-6E99-47CC-8C08-500D24414BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1576,7 +1576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1649,6 +1649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1663,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,6 +1722,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2036,7 +2045,7 @@
   <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C409" sqref="C409"/>
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6307,8 +6316,8 @@
       <c r="B401" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C401" s="4" t="s">
-        <v>4</v>
+      <c r="C401" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="21">
@@ -6318,7 +6327,7 @@
       <c r="B402" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C402" s="4" t="s">
+      <c r="C402" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6428,8 +6437,8 @@
       <c r="B412" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
+      <c r="C412" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A53DA6B-6E99-47CC-8C08-500D24414BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43CA53B-F305-4C00-9448-A10BE42853A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6459,8 +6459,8 @@
       <c r="B414" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
+      <c r="C414" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43CA53B-F305-4C00-9448-A10BE42853A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52EA4D-AE9C-4959-8C3D-5BC67FFFF140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4669,8 +4669,8 @@
       <c r="B247" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>4</v>
+      <c r="C247" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52EA4D-AE9C-4959-8C3D-5BC67FFFF140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC3FA3-5078-49AA-9A88-6B553C147D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247:C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4680,8 +4680,8 @@
       <c r="B248" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>4</v>
+      <c r="C248" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC3FA3-5078-49AA-9A88-6B553C147D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D8ED2-339D-4367-B2A4-5100C32D5512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247:C248"/>
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4691,8 +4691,8 @@
       <c r="B249" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>4</v>
+      <c r="C249" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D8ED2-339D-4367-B2A4-5100C32D5512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAC0CF-A539-4840-BA51-336A656A5A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2045,7 +2045,7 @@
   <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4713,8 +4713,8 @@
       <c r="B251" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>4</v>
+      <c r="C251" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAAC0CF-A539-4840-BA51-336A656A5A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E0CAD-710E-429B-B6E5-AAE40D214EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4724,8 +4724,8 @@
       <c r="B252" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>4</v>
+      <c r="C252" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E0CAD-710E-429B-B6E5-AAE40D214EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36172428-F6D6-402A-92D2-1617D854BCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2044,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4746,8 +4746,8 @@
       <c r="B254" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>4</v>
+      <c r="C254" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36172428-F6D6-402A-92D2-1617D854BCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD2645-D7F7-46AB-BFAF-597F63C45C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="495">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>Shortest Path in Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Choose and Swap</t>
   </si>
 </sst>
 </file>
@@ -2042,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4722,7 +4725,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>235</v>
+        <v>494</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>464</v>
@@ -4733,10 +4736,10 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>4</v>
+        <v>235</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
@@ -4744,10 +4747,10 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>464</v>
+        <v>236</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
@@ -4755,10 +4758,10 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>4</v>
+        <v>237</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
@@ -4766,7 +4769,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4777,7 +4780,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4788,7 +4791,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4799,7 +4802,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4810,7 +4813,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4821,7 +4824,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4832,7 +4835,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4843,7 +4846,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4854,7 +4857,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4865,7 +4868,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4876,7 +4879,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4887,7 +4890,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4898,7 +4901,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4909,7 +4912,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4920,7 +4923,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4931,7 +4934,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4942,7 +4945,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4953,7 +4956,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>4</v>
@@ -4964,7 +4967,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>4</v>
@@ -4975,7 +4978,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4986,7 +4989,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4997,7 +5000,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -5008,7 +5011,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -5019,7 +5022,7 @@
         <v>229</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -5030,7 +5033,7 @@
         <v>229</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -5041,37 +5044,37 @@
         <v>229</v>
       </c>
       <c r="B281" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="21">
+      <c r="A282" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="21">
-      <c r="B282" s="7"/>
-      <c r="C282" s="4"/>
+      <c r="C282" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="B283" s="7"/>
       <c r="C283" s="4"/>
     </row>
     <row r="284" spans="1:3" ht="21">
-      <c r="A284" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B284" s="7"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -5082,7 +5085,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -5093,7 +5096,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -5104,7 +5107,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -5115,7 +5118,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -5126,7 +5129,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -5137,7 +5140,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -5148,7 +5151,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -5159,7 +5162,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -5170,7 +5173,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>4</v>
@@ -5181,7 +5184,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>4</v>
@@ -5192,7 +5195,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -5203,7 +5206,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -5214,7 +5217,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5225,7 +5228,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5236,7 +5239,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5247,7 +5250,7 @@
         <v>264</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5258,37 +5261,37 @@
         <v>264</v>
       </c>
       <c r="B302" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="21">
+      <c r="A303" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="21">
-      <c r="B303" s="7"/>
-      <c r="C303" s="4"/>
+      <c r="C303" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="B304" s="7"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" spans="1:4" ht="21">
-      <c r="A305" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B305" s="7"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>464</v>
@@ -5299,7 +5302,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>464</v>
@@ -5310,7 +5313,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>464</v>
@@ -5321,10 +5324,10 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>4</v>
+        <v>288</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="21">
@@ -5332,10 +5335,10 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>464</v>
+        <v>289</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="21">
@@ -5343,7 +5346,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>464</v>
@@ -5354,7 +5357,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>464</v>
@@ -5365,7 +5368,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>464</v>
@@ -5376,13 +5379,10 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D314" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="21">
@@ -5390,10 +5390,13 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>464</v>
+      </c>
+      <c r="D315" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="21">
@@ -5401,7 +5404,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>464</v>
@@ -5412,7 +5415,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>464</v>
@@ -5422,8 +5425,8 @@
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="9" t="s">
-        <v>298</v>
+      <c r="B318" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>464</v>
@@ -5433,8 +5436,8 @@
       <c r="A319" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B319" s="6" t="s">
-        <v>299</v>
+      <c r="B319" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>464</v>
@@ -5445,7 +5448,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>464</v>
@@ -5456,13 +5459,10 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C321" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D321" t="s">
-        <v>476</v>
+        <v>300</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="21">
@@ -5470,10 +5470,13 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C322" s="19" t="s">
         <v>464</v>
+      </c>
+      <c r="D322" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="21">
@@ -5481,9 +5484,9 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C323" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C323" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5492,7 +5495,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>464</v>
@@ -5503,7 +5506,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>464</v>
@@ -5514,7 +5517,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>464</v>
@@ -5525,7 +5528,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>464</v>
@@ -5536,7 +5539,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>464</v>
@@ -5547,7 +5550,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>464</v>
@@ -5558,10 +5561,10 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="21">
@@ -5569,10 +5572,10 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>464</v>
+        <v>308</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="21">
@@ -5580,9 +5583,9 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C332" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C332" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5591,9 +5594,9 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C333" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C333" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5602,7 +5605,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>464</v>
@@ -5613,7 +5616,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>464</v>
@@ -5624,172 +5627,172 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C336" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D336" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="21">
+        <v>313</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="21">
       <c r="A337" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C337" s="19" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" ht="21">
+      <c r="D337" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="21">
       <c r="A338" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C338" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="21">
+        <v>315</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="21">
       <c r="A339" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C339" s="19" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="21">
+        <v>316</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="21">
       <c r="A340" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="C340" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" spans="1:4" ht="21">
       <c r="A341" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C341" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" spans="1:4" ht="21">
       <c r="A342" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C342" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" spans="1:4" ht="21">
       <c r="A343" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C343" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" spans="1:4" ht="21">
       <c r="A344" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" spans="1:4" ht="21">
       <c r="A345" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B345" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="21">
+      <c r="A346" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C345" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="21">
-      <c r="B346" s="7"/>
-      <c r="C346" s="4"/>
-    </row>
-    <row r="347" spans="1:3" ht="21">
+      <c r="C346" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
       <c r="B347" s="7"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="348" spans="1:4" ht="21">
+      <c r="B348" s="7"/>
+      <c r="C348" s="4"/>
+    </row>
+    <row r="349" spans="1:4" ht="21">
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" spans="1:4" ht="21">
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" spans="1:4" ht="21">
       <c r="A351" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" spans="1:4" ht="21">
       <c r="A352" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>464</v>
@@ -5800,9 +5803,9 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C353" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C353" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5811,9 +5814,9 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C354" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C354" s="20" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5822,7 +5825,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>464</v>
@@ -5832,8 +5835,8 @@
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="9" t="s">
-        <v>332</v>
+      <c r="B356" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>464</v>
@@ -5843,8 +5846,8 @@
       <c r="A357" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>333</v>
+      <c r="B357" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>464</v>
@@ -5855,10 +5858,10 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>333</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5866,7 +5869,7 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5877,10 +5880,10 @@
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>464</v>
+        <v>335</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5888,10 +5891,10 @@
         <v>323</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5899,10 +5902,10 @@
         <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>464</v>
+        <v>337</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5910,7 +5913,7 @@
         <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>464</v>
@@ -5921,7 +5924,7 @@
         <v>323</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>464</v>
@@ -5932,37 +5935,37 @@
         <v>323</v>
       </c>
       <c r="B365" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="21">
+      <c r="A366" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B366" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C365" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" ht="21">
-      <c r="B366" s="7"/>
-      <c r="C366" s="4"/>
+      <c r="C366" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="B367" s="7"/>
       <c r="C367" s="4"/>
     </row>
     <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C368" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B368" s="7"/>
+      <c r="C368" s="4"/>
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>464</v>
@@ -5973,7 +5976,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>464</v>
@@ -5984,7 +5987,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>464</v>
@@ -5995,7 +5998,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>464</v>
@@ -6006,7 +6009,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>464</v>
@@ -6017,7 +6020,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>464</v>
@@ -6028,7 +6031,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>464</v>
@@ -6039,7 +6042,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>464</v>
@@ -6050,7 +6053,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>464</v>
@@ -6061,9 +6064,9 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C378" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C378" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6072,9 +6075,9 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C379" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C379" s="21" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6083,7 +6086,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>464</v>
@@ -6094,7 +6097,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>464</v>
@@ -6105,7 +6108,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>464</v>
@@ -6116,7 +6119,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>464</v>
@@ -6127,7 +6130,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>464</v>
@@ -6138,7 +6141,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>464</v>
@@ -6149,7 +6152,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>464</v>
@@ -6160,10 +6163,10 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>4</v>
+        <v>361</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
@@ -6171,10 +6174,10 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C388" s="11" t="s">
-        <v>464</v>
+        <v>362</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
@@ -6182,7 +6185,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>464</v>
@@ -6193,10 +6196,10 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>4</v>
+        <v>364</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
@@ -6204,10 +6207,10 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C391" s="11" t="s">
-        <v>464</v>
+        <v>365</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
@@ -6215,7 +6218,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>464</v>
@@ -6226,7 +6229,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>464</v>
@@ -6237,10 +6240,10 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
@@ -6248,7 +6251,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6259,10 +6262,10 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C396" s="11" t="s">
-        <v>464</v>
+        <v>368</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
@@ -6270,7 +6273,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>464</v>
@@ -6281,7 +6284,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>464</v>
@@ -6292,7 +6295,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>493</v>
+        <v>371</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>464</v>
@@ -6303,7 +6306,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="C400" s="11" t="s">
         <v>464</v>
@@ -6314,7 +6317,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C401" s="11" t="s">
         <v>464</v>
@@ -6325,10 +6328,10 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C402" s="22" t="s">
-        <v>4</v>
+        <v>373</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
@@ -6336,9 +6339,9 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C403" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C403" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6347,7 +6350,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6372,10 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C406" s="11" t="s">
-        <v>464</v>
+        <v>376</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6380,7 +6383,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>464</v>
@@ -6391,7 +6394,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>464</v>
@@ -6402,10 +6405,10 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>4</v>
+        <v>379</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
@@ -6413,7 +6416,7 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6424,7 +6427,7 @@
         <v>342</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6435,10 +6438,10 @@
         <v>342</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C412" s="11" t="s">
-        <v>464</v>
+        <v>382</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
@@ -6446,10 +6449,10 @@
         <v>342</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>383</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6457,37 +6460,37 @@
         <v>342</v>
       </c>
       <c r="B414" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="21">
+      <c r="A415" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B415" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C414" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
-      <c r="B415" s="7"/>
-      <c r="C415" s="4"/>
+      <c r="C415" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="B416" s="7"/>
       <c r="C416" s="4"/>
     </row>
     <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B417" s="7"/>
+      <c r="C417" s="4"/>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6498,7 +6501,7 @@
         <v>386</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6509,7 +6512,7 @@
         <v>386</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6520,7 +6523,7 @@
         <v>386</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6531,37 +6534,37 @@
         <v>386</v>
       </c>
       <c r="B422" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="21">
+      <c r="A423" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B423" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
-      <c r="B423" s="7"/>
-      <c r="C423" s="4"/>
+      <c r="C423" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="B424" s="7"/>
       <c r="C424" s="4"/>
     </row>
     <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B425" s="7"/>
+      <c r="C425" s="4"/>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6572,7 +6575,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6583,7 +6586,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6594,7 +6597,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6605,7 +6608,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6616,7 +6619,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6627,7 +6630,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6638,7 +6641,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6649,7 +6652,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6660,7 +6663,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6671,7 +6674,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6682,7 +6685,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6693,7 +6696,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6704,7 +6707,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6715,7 +6718,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6726,7 +6729,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6737,7 +6740,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6748,7 +6751,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6759,7 +6762,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6770,7 +6773,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6781,7 +6784,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6792,7 +6795,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6803,7 +6806,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6814,7 +6817,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6825,7 +6828,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6836,7 +6839,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6847,7 +6850,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6858,7 +6861,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6869,7 +6872,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6880,7 +6883,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6891,7 +6894,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6902,7 +6905,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6913,7 +6916,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6924,7 +6927,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6935,7 +6938,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6946,7 +6949,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6957,7 +6960,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6968,7 +6971,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6979,7 +6982,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6990,7 +6993,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7001,7 +7004,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7012,7 +7015,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7023,7 +7026,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7034,7 +7037,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7045,7 +7048,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7056,7 +7059,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7067,7 +7070,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7078,7 +7081,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7089,7 +7092,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7100,7 +7103,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7111,7 +7114,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7122,7 +7125,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7133,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7144,7 +7147,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7155,7 +7158,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7166,7 +7169,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7177,7 +7180,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7188,7 +7191,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7199,38 +7202,38 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="21">
+      <c r="A485" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B485" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C484" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" ht="21">
-      <c r="B485" s="7"/>
-      <c r="C485" s="4"/>
+      <c r="C485" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="486" spans="1:3" ht="21">
-      <c r="A486" s="8"/>
       <c r="B486" s="7"/>
       <c r="C486" s="4"/>
     </row>
     <row r="487" spans="1:3" ht="21">
-      <c r="A487" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A487" s="8"/>
+      <c r="B487" s="7"/>
+      <c r="C487" s="4"/>
     </row>
     <row r="488" spans="1:3" ht="21">
       <c r="A488" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7241,7 +7244,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7252,7 +7255,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7263,7 +7266,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7274,7 +7277,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7285,7 +7288,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7296,7 +7299,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7307,7 +7310,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7318,9 +7321,20 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" ht="21">
+      <c r="A497" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B497" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C496" s="4" t="s">
+      <c r="C497" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7544,231 +7558,231 @@
     <hyperlink ref="B249" r:id="rId216" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
     <hyperlink ref="B250" r:id="rId217" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
     <hyperlink ref="B251" r:id="rId218" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B252" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B253" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B254" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B255" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B256" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B257" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B259" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B260" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B261" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B262" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B263" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B264" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B265" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B266" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B267" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B268" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B269" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B270" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B271" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B272" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B273" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B274" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B275" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B276" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B277" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B278" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B279" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B280" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B281" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B284" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B285" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B286" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B287" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B288" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B289" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B290" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B291" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B292" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B293" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B294" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B295" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B296" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B297" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B298" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B299" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B300" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B301" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B302" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B305" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B306" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B307" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B308" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B309" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B310" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B311" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B312" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B313" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B314" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B315" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B316" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B317" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B318" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B319" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B320" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B321" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B322" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B324" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B325" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B326" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B328" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B329" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B330" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B331" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B332" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B333" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B334" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B335" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B336" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B337" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B338" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B340" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B341" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B342" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B343" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B344" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B345" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B348" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B349" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B350" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B351" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B352" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B353" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B354" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B355" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B356" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B357" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B358" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B359" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B360" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B361" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B362" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B363" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B364" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B365" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B369" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B370" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B371" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B372" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B373" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B374" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B375" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B376" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B377" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B378" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B379" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B380" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B381" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B382" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B383" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B384" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B385" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B386" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B387" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B388" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B389" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B390" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B393" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B394" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B395" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B396" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B397" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B398" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B400" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B401" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B402" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B403" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B404" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B405" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B406" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B407" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B408" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B409" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B411" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B410" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B412" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B413" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B414" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B417" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B418" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B419" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B420" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B421" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B422" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B425" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B426" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B427" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B428" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B429" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B430" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B431" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B432" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B433" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B434" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B435" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B436" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B437" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B438" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B439" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B440" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B441" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B442" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B443" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B444" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B445" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B446" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B447" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B448" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B449" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B450" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B451" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B452" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B453" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B454" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B455" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B456" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B457" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B458" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B459" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B460" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B461" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B462" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B463" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B464" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B466" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B465" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B467" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B468" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B469" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B470" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B471" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B472" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B473" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B474" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B475" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B476" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B477" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B484" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B483" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B482" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B481" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B480" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B479" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B478" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B487" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B488" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B489" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B490" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B491" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B492" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B493" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B496" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B494" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B495" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B368" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B253" r:id="rId219" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B254" r:id="rId220" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B255" r:id="rId221" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B256" r:id="rId222" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B257" r:id="rId223" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B258" r:id="rId224" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B259" r:id="rId225" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B260" r:id="rId226" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B261" r:id="rId227" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B262" r:id="rId228" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B263" r:id="rId229" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B264" r:id="rId230" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B265" r:id="rId231" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B266" r:id="rId232" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B267" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B268" r:id="rId234" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B269" r:id="rId235" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B270" r:id="rId236" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B271" r:id="rId237" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B272" r:id="rId238" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B273" r:id="rId239" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B274" r:id="rId240" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B275" r:id="rId241" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B276" r:id="rId242" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B277" r:id="rId243" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B278" r:id="rId244" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B279" r:id="rId245" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B280" r:id="rId246" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B281" r:id="rId247" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B282" r:id="rId248" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B285" r:id="rId249" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B286" r:id="rId250" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B287" r:id="rId251" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B288" r:id="rId252" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B289" r:id="rId253" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B290" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B291" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B292" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B293" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B294" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B295" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B296" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B297" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B298" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B299" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B300" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B301" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B302" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B303" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B306" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B307" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B308" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B309" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B310" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B311" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B312" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B313" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B314" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B315" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B316" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B317" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B318" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B319" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B320" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B321" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B322" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B323" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B325" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B326" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B327" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B329" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B330" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B331" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B332" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B333" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B334" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B335" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B336" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B337" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B338" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B339" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B341" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B342" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B343" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B344" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B345" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B346" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B349" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B350" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B351" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B352" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B353" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B354" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B355" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B356" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B357" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B358" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B359" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B360" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B361" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B362" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B363" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B364" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B365" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B366" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B370" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B371" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B372" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B373" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B374" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B375" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B376" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B377" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B378" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B379" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B380" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B381" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B382" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B383" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B384" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B385" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B386" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B387" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B388" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B389" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B390" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B391" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B394" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B395" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B396" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B397" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B398" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B399" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B401" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B402" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B403" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B404" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B405" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B406" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B407" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B408" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B409" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B410" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B412" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B411" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B413" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B414" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B415" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B418" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B419" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B420" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B421" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B422" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B423" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B426" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B427" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B428" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B429" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B430" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B431" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B432" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B433" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B434" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B435" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B436" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B437" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B438" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B439" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B440" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B441" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B442" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B443" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B444" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B445" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B446" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B447" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B448" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B449" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B450" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B451" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B452" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B453" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B454" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B455" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B456" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B457" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B458" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B459" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B460" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B461" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B462" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B463" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B464" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B465" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B467" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B466" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B468" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B469" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B470" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B471" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B472" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B473" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B474" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B475" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B476" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B477" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B478" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B485" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B484" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B483" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B482" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B481" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B480" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B479" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B488" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B489" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B490" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B491" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B492" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B493" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B494" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B497" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B495" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B496" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B369" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B213" r:id="rId446" xr:uid="{DF4E5319-F59D-4C13-8A23-3E041980DFAF}"/>
@@ -7780,15 +7794,16 @@
     <hyperlink ref="B229" r:id="rId452" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
     <hyperlink ref="B235" r:id="rId453" xr:uid="{A4AF231A-1112-4F03-9A28-AF0D0CA49382}"/>
     <hyperlink ref="B240" r:id="rId454" xr:uid="{26AF757B-5F3D-434C-B27B-0125960904B5}"/>
-    <hyperlink ref="B323" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
-    <hyperlink ref="B327" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
-    <hyperlink ref="B339" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
+    <hyperlink ref="B324" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
+    <hyperlink ref="B328" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
+    <hyperlink ref="B340" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
     <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
-    <hyperlink ref="B391" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
-    <hyperlink ref="B392" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
-    <hyperlink ref="B399" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
+    <hyperlink ref="B392" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
+    <hyperlink ref="B393" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
+    <hyperlink ref="B400" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
+    <hyperlink ref="B252" r:id="rId462" xr:uid="{0EDEAD3A-F3F0-4D9B-BF0D-E0DDAE13C611}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId462"/>
+  <pageSetup orientation="portrait" r:id="rId463"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCD2645-D7F7-46AB-BFAF-597F63C45C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5991605-1E66-4D50-8943-F8C14E000861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4771,8 +4771,8 @@
       <c r="B256" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>4</v>
+      <c r="C256" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5991605-1E66-4D50-8943-F8C14E000861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589EF40-5818-4AD5-A4BA-E4C1B270E66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4782,8 +4782,8 @@
       <c r="B257" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>4</v>
+      <c r="C257" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589EF40-5818-4AD5-A4BA-E4C1B270E66E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA891C8-B4F8-4F90-8DDE-83DB5A06CECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1510,6 +1510,9 @@
   </si>
   <si>
     <t>Choose and Swap</t>
+  </si>
+  <si>
+    <t>https://www.spoj.com/problems/CHOCOLA/</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2051,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2056,7 +2059,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
@@ -4775,7 +4778,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" spans="1:4" ht="21">
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" spans="1:4" ht="21">
       <c r="A258" s="5" t="s">
         <v>229</v>
       </c>
@@ -4797,18 +4800,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" spans="1:4" ht="21">
       <c r="A259" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="21">
+      <c r="C259" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D259" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="21">
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" spans="1:4" ht="21">
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
@@ -4830,7 +4836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" spans="1:4" ht="21">
       <c r="A262" s="5" t="s">
         <v>229</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" spans="1:4" ht="21">
       <c r="A263" s="5" t="s">
         <v>229</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" spans="1:4" ht="21">
       <c r="A264" s="5" t="s">
         <v>229</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" spans="1:4" ht="21">
       <c r="A265" s="5" t="s">
         <v>229</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" spans="1:4" ht="21">
       <c r="A266" s="5" t="s">
         <v>229</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" spans="1:4" ht="21">
       <c r="A267" s="5" t="s">
         <v>229</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" spans="1:4" ht="21">
       <c r="A268" s="5" t="s">
         <v>229</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" spans="1:4" ht="21">
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
@@ -4918,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" spans="1:4" ht="21">
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" spans="1:4" ht="21">
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" spans="1:4" ht="21">
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA891C8-B4F8-4F90-8DDE-83DB5A06CECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EC62F-5BF9-430F-ABB6-B86B8A9EA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4821,8 +4821,8 @@
       <c r="B260" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>4</v>
+      <c r="C260" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205EC62F-5BF9-430F-ABB6-B86B8A9EA983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB36233-BCEF-4699-A525-0A328EC2A981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,6 +1513,9 @@
   </si>
   <si>
     <t>https://www.spoj.com/problems/CHOCOLA/</t>
+  </si>
+  <si>
+    <t>&lt;YES&gt; Same as N Meetings ina room</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,6 +1664,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1675,7 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1731,6 +1740,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2050,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2969,7 +2981,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
@@ -2980,7 +2992,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -2991,7 +3003,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
@@ -3002,7 +3014,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -3013,7 +3025,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
@@ -3046,7 +3058,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
@@ -3057,7 +3069,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
@@ -3068,7 +3080,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -3079,7 +3091,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">
@@ -4832,8 +4844,8 @@
       <c r="B261" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
+      <c r="C261" s="23" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="21">
@@ -4843,8 +4855,8 @@
       <c r="B262" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>4</v>
+      <c r="C262" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB36233-BCEF-4699-A525-0A328EC2A981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC356D-30BF-41CD-AD93-F1BF56709F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4866,8 +4866,8 @@
       <c r="B263" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>4</v>
+      <c r="C263" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC356D-30BF-41CD-AD93-F1BF56709F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F50F7-3935-4614-BEDB-284310B69BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4877,8 +4877,8 @@
       <c r="B264" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>4</v>
+      <c r="C264" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="21">
@@ -4888,8 +4888,8 @@
       <c r="B265" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>4</v>
+      <c r="C265" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F50F7-3935-4614-BEDB-284310B69BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8C7E4-79F8-4C44-8AF8-41CB9833D00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="497">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4891,6 +4891,9 @@
       <c r="C265" s="11" t="s">
         <v>464</v>
       </c>
+      <c r="D265" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="266" spans="1:4" ht="21">
       <c r="A266" s="5" t="s">
@@ -4899,8 +4902,11 @@
       <c r="B266" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>4</v>
+      <c r="C266" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D266" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="21">
@@ -4910,8 +4916,8 @@
       <c r="B267" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>4</v>
+      <c r="C267" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="21">
@@ -5009,8 +5015,8 @@
       <c r="B276" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>4</v>
+      <c r="C276" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8C7E4-79F8-4C44-8AF8-41CB9833D00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6C15A-F85F-4968-AAFD-5244C7BD0516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4927,8 +4927,8 @@
       <c r="B268" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>4</v>
+      <c r="C268" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6C15A-F85F-4968-AAFD-5244C7BD0516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69062B60-4AC3-4E91-80D8-9A28FC98CD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4938,8 +4938,8 @@
       <c r="B269" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
+      <c r="C269" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69062B60-4AC3-4E91-80D8-9A28FC98CD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3749CD-B460-4B17-94E3-47D185577D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4949,8 +4949,8 @@
       <c r="B270" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
+      <c r="C270" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3749CD-B460-4B17-94E3-47D185577D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BE760-5283-467B-8213-0749911C577D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4960,8 +4960,8 @@
       <c r="B271" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>4</v>
+      <c r="C271" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BE760-5283-467B-8213-0749911C577D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF43E8-B0ED-41A8-9572-08161EF0A4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5048,8 +5048,8 @@
       <c r="B279" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>4</v>
+      <c r="C279" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF43E8-B0ED-41A8-9572-08161EF0A4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0196951-87B4-4789-AD9C-2C7F66B8FBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5070,8 +5070,8 @@
       <c r="B281" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
+      <c r="C281" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0196951-87B4-4789-AD9C-2C7F66B8FBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDDDF9-0937-42C7-942F-46F3230FA573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274"/>
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4971,8 +4971,8 @@
       <c r="B272" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>4</v>
+      <c r="C272" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDDDF9-0937-42C7-942F-46F3230FA573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28AE44-3B08-4C11-B70B-BC89CECDE4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4982,8 +4982,8 @@
       <c r="B273" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>4</v>
+      <c r="C273" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28AE44-3B08-4C11-B70B-BC89CECDE4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513675B1-2DDA-4837-A255-C7F683E3F8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+      <selection activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5026,8 +5026,8 @@
       <c r="B277" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>4</v>
+      <c r="C277" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513675B1-2DDA-4837-A255-C7F683E3F8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E54DC8-A593-4D97-8C38-9ED267F2D17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D277" sqref="D277"/>
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5059,8 +5059,8 @@
       <c r="B280" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>4</v>
+      <c r="C280" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E54DC8-A593-4D97-8C38-9ED267F2D17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2060ED2-6FB9-469C-AEBA-3B15516A62B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5081,8 +5081,8 @@
       <c r="B282" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>4</v>
+      <c r="C282" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2060ED2-6FB9-469C-AEBA-3B15516A62B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E45012-6A34-4A2C-9040-E771E43F5377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5100,8 +5100,8 @@
       <c r="B285" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C285" s="4" t="s">
-        <v>4</v>
+      <c r="C285" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
@@ -5111,8 +5111,8 @@
       <c r="B286" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>4</v>
+      <c r="C286" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
@@ -5144,8 +5144,8 @@
       <c r="B289" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>4</v>
+      <c r="C289" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E45012-6A34-4A2C-9040-E771E43F5377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F218AA-F54D-4589-BEAB-0ECD0B33D525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+      <selection activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5155,8 +5155,8 @@
       <c r="B290" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C290" s="4" t="s">
-        <v>4</v>
+      <c r="C290" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
@@ -5166,8 +5166,8 @@
       <c r="B291" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>4</v>
+      <c r="C291" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F218AA-F54D-4589-BEAB-0ECD0B33D525}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADDFA9-1DC9-4851-A85D-A65EC52B5BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="499">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1516,6 +1516,12 @@
   </si>
   <si>
     <t>&lt;YES&gt; Same as N Meetings ina room</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -2060,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5137,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="5" t="s">
         <v>264</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="5" t="s">
         <v>264</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="5" t="s">
         <v>264</v>
       </c>
@@ -5170,163 +5176,169 @@
         <v>464</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C292" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
+      <c r="C292" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D292" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
+        <v>497</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D293" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
       <c r="A294" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="A295" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B303" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="21">
+      <c r="A304" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="21">
-      <c r="B304" s="7"/>
-      <c r="C304" s="4"/>
+      <c r="C304" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="305" spans="1:4" ht="21">
       <c r="B305" s="7"/>
       <c r="C305" s="4"/>
     </row>
     <row r="306" spans="1:4" ht="21">
-      <c r="A306" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B306" s="7"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>464</v>
@@ -5337,7 +5349,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>464</v>
@@ -5348,7 +5360,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>464</v>
@@ -5359,10 +5371,10 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>288</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="21">
@@ -5370,10 +5382,10 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>464</v>
+        <v>289</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="21">
@@ -5381,7 +5393,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>464</v>
@@ -5392,7 +5404,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>464</v>
@@ -5403,7 +5415,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>464</v>
@@ -5414,13 +5426,10 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="D315" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="21">
@@ -5428,10 +5437,13 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>464</v>
+      </c>
+      <c r="D316" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="21">
@@ -5439,7 +5451,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>464</v>
@@ -5450,7 +5462,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>464</v>
@@ -5460,8 +5472,8 @@
       <c r="A319" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B319" s="9" t="s">
-        <v>298</v>
+      <c r="B319" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>464</v>
@@ -5471,8 +5483,8 @@
       <c r="A320" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B320" s="6" t="s">
-        <v>299</v>
+      <c r="B320" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>464</v>
@@ -5483,7 +5495,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>464</v>
@@ -5494,13 +5506,10 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C322" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D322" t="s">
-        <v>476</v>
+        <v>300</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="21">
@@ -5508,10 +5517,13 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C323" s="19" t="s">
         <v>464</v>
+      </c>
+      <c r="D323" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="21">
@@ -5519,9 +5531,9 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C324" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C324" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5530,7 +5542,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>464</v>
@@ -5541,7 +5553,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>464</v>
@@ -5552,7 +5564,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>464</v>
@@ -5563,7 +5575,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>464</v>
@@ -5574,7 +5586,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>464</v>
@@ -5585,7 +5597,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>464</v>
@@ -5596,10 +5608,10 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="21">
@@ -5607,10 +5619,10 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>464</v>
+        <v>308</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="21">
@@ -5618,9 +5630,9 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C333" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C333" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5629,9 +5641,9 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C334" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C334" s="19" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5640,7 +5652,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>464</v>
@@ -5651,7 +5663,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>464</v>
@@ -5662,13 +5674,10 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C337" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D337" t="s">
-        <v>488</v>
+        <v>313</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="21">
@@ -5676,10 +5685,13 @@
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C338" s="19" t="s">
         <v>464</v>
+      </c>
+      <c r="D338" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="21">
@@ -5687,10 +5699,10 @@
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C339" s="12" t="s">
-        <v>4</v>
+        <v>315</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="21">
@@ -5698,10 +5710,10 @@
         <v>284</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C340" s="19" t="s">
-        <v>464</v>
+        <v>316</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="21">
@@ -5709,7 +5721,7 @@
         <v>284</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="C341" s="19" t="s">
         <v>464</v>
@@ -5720,7 +5732,7 @@
         <v>284</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C342" s="19" t="s">
         <v>464</v>
@@ -5731,7 +5743,7 @@
         <v>284</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C343" s="19" t="s">
         <v>464</v>
@@ -5742,7 +5754,7 @@
         <v>284</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C344" s="19" t="s">
         <v>464</v>
@@ -5753,7 +5765,7 @@
         <v>284</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C345" s="19" t="s">
         <v>464</v>
@@ -5764,37 +5776,37 @@
         <v>284</v>
       </c>
       <c r="B346" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C346" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="21">
+      <c r="A347" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C346" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="21">
-      <c r="B347" s="7"/>
-      <c r="C347" s="4"/>
+      <c r="C347" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="348" spans="1:4" ht="21">
       <c r="B348" s="7"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" spans="1:4" ht="21">
-      <c r="A349" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B349" s="7"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350" spans="1:4" ht="21">
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>464</v>
@@ -5805,7 +5817,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>464</v>
@@ -5816,7 +5828,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>464</v>
@@ -5827,7 +5839,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>464</v>
@@ -5838,9 +5850,9 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C354" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C354" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5849,9 +5861,9 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C355" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C355" s="20" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5860,7 +5872,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>464</v>
@@ -5870,8 +5882,8 @@
       <c r="A357" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B357" s="9" t="s">
-        <v>332</v>
+      <c r="B357" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>464</v>
@@ -5881,8 +5893,8 @@
       <c r="A358" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B358" s="6" t="s">
-        <v>333</v>
+      <c r="B358" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>464</v>
@@ -5893,10 +5905,10 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
+        <v>333</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5904,7 +5916,7 @@
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5915,10 +5927,10 @@
         <v>323</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>464</v>
+        <v>335</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5926,10 +5938,10 @@
         <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5937,10 +5949,10 @@
         <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>464</v>
+        <v>337</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5948,7 +5960,7 @@
         <v>323</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>464</v>
@@ -5959,7 +5971,7 @@
         <v>323</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>464</v>
@@ -5970,37 +5982,37 @@
         <v>323</v>
       </c>
       <c r="B366" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="21">
+      <c r="A367" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B367" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C366" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="21">
-      <c r="B367" s="7"/>
-      <c r="C367" s="4"/>
+      <c r="C367" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="B368" s="7"/>
       <c r="C368" s="4"/>
     </row>
     <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C369" s="11" t="s">
-        <v>464</v>
-      </c>
+      <c r="B369" s="7"/>
+      <c r="C369" s="4"/>
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>464</v>
@@ -6011,7 +6023,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>464</v>
@@ -6022,7 +6034,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>464</v>
@@ -6033,7 +6045,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>464</v>
@@ -6044,7 +6056,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>464</v>
@@ -6055,7 +6067,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>464</v>
@@ -6066,7 +6078,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>464</v>
@@ -6077,7 +6089,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>464</v>
@@ -6088,7 +6100,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>464</v>
@@ -6099,9 +6111,9 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C379" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C379" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6110,9 +6122,9 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C380" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C380" s="21" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6121,7 +6133,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>464</v>
@@ -6132,7 +6144,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>464</v>
@@ -6143,7 +6155,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>464</v>
@@ -6154,7 +6166,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>464</v>
@@ -6165,7 +6177,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>464</v>
@@ -6176,7 +6188,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>464</v>
@@ -6187,7 +6199,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C387" s="11" t="s">
         <v>464</v>
@@ -6198,10 +6210,10 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
+        <v>361</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
@@ -6209,10 +6221,10 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>464</v>
+        <v>362</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
@@ -6220,7 +6232,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>464</v>
@@ -6231,10 +6243,10 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
+        <v>364</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
@@ -6242,10 +6254,10 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C392" s="11" t="s">
-        <v>464</v>
+        <v>365</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
@@ -6253,7 +6265,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>464</v>
@@ -6264,7 +6276,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>464</v>
@@ -6275,10 +6287,10 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
@@ -6286,7 +6298,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6297,10 +6309,10 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>464</v>
+        <v>368</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
@@ -6308,7 +6320,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>464</v>
@@ -6319,7 +6331,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>464</v>
@@ -6330,7 +6342,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>493</v>
+        <v>371</v>
       </c>
       <c r="C400" s="11" t="s">
         <v>464</v>
@@ -6341,7 +6353,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="C401" s="11" t="s">
         <v>464</v>
@@ -6352,7 +6364,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C402" s="11" t="s">
         <v>464</v>
@@ -6363,10 +6375,10 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C403" s="22" t="s">
-        <v>4</v>
+        <v>373</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
@@ -6374,9 +6386,9 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C404" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C404" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6385,7 +6397,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6407,10 +6419,10 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C407" s="11" t="s">
-        <v>464</v>
+        <v>376</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
@@ -6418,7 +6430,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>464</v>
@@ -6429,7 +6441,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>464</v>
@@ -6440,10 +6452,10 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>379</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6451,7 +6463,7 @@
         <v>342</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6462,7 +6474,7 @@
         <v>342</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6473,10 +6485,10 @@
         <v>342</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C413" s="11" t="s">
-        <v>464</v>
+        <v>382</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6484,10 +6496,10 @@
         <v>342</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>383</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
@@ -6495,37 +6507,37 @@
         <v>342</v>
       </c>
       <c r="B415" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="21">
+      <c r="A416" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B416" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C415" s="11" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
-      <c r="B416" s="7"/>
-      <c r="C416" s="4"/>
+      <c r="C416" s="11" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="B417" s="7"/>
       <c r="C417" s="4"/>
     </row>
     <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B418" s="7"/>
+      <c r="C418" s="4"/>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6536,7 +6548,7 @@
         <v>386</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6547,7 +6559,7 @@
         <v>386</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6558,7 +6570,7 @@
         <v>386</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6569,37 +6581,37 @@
         <v>386</v>
       </c>
       <c r="B423" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="21">
+      <c r="A424" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B424" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="21">
-      <c r="B424" s="7"/>
-      <c r="C424" s="4"/>
+      <c r="C424" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="B425" s="7"/>
       <c r="C425" s="4"/>
     </row>
     <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B426" s="7"/>
+      <c r="C426" s="4"/>
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6610,7 +6622,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6621,7 +6633,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6632,7 +6644,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6643,7 +6655,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6654,7 +6666,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6665,7 +6677,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6676,7 +6688,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6687,7 +6699,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6698,7 +6710,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6709,7 +6721,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6720,7 +6732,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6731,7 +6743,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6742,7 +6754,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6753,7 +6765,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6764,7 +6776,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6775,7 +6787,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6786,7 +6798,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6797,7 +6809,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6808,7 +6820,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6819,7 +6831,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6830,7 +6842,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6841,7 +6853,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6852,7 +6864,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6863,7 +6875,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6874,7 +6886,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6885,7 +6897,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6896,7 +6908,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6907,7 +6919,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6918,7 +6930,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6929,7 +6941,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6940,7 +6952,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6951,7 +6963,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6962,7 +6974,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6973,7 +6985,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6984,7 +6996,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6995,7 +7007,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7006,7 +7018,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7017,7 +7029,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7028,7 +7040,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7039,7 +7051,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7050,7 +7062,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7061,7 +7073,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7072,7 +7084,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7083,7 +7095,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7094,7 +7106,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7105,7 +7117,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7116,7 +7128,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7127,7 +7139,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7138,7 +7150,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7149,7 +7161,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7160,7 +7172,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7171,7 +7183,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7182,7 +7194,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7193,7 +7205,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7204,7 +7216,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7215,7 +7227,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7226,7 +7238,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7237,38 +7249,38 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="21">
+      <c r="A486" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B486" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C485" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" ht="21">
-      <c r="B486" s="7"/>
-      <c r="C486" s="4"/>
+      <c r="C486" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="487" spans="1:3" ht="21">
-      <c r="A487" s="8"/>
       <c r="B487" s="7"/>
       <c r="C487" s="4"/>
     </row>
     <row r="488" spans="1:3" ht="21">
-      <c r="A488" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B488" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A488" s="8"/>
+      <c r="B488" s="7"/>
+      <c r="C488" s="4"/>
     </row>
     <row r="489" spans="1:3" ht="21">
       <c r="A489" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7279,7 +7291,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7290,7 +7302,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7301,7 +7313,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7312,7 +7324,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7323,7 +7335,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7334,7 +7346,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7345,7 +7357,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7356,9 +7368,20 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="21">
+      <c r="A498" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B498" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C497" s="4" t="s">
+      <c r="C498" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7620,193 +7643,193 @@
     <hyperlink ref="B290" r:id="rId254" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
     <hyperlink ref="B291" r:id="rId255" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
     <hyperlink ref="B292" r:id="rId256" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B293" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B294" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B295" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B296" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B297" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B298" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B299" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B300" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B301" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B302" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B303" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B306" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B307" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B308" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B309" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B310" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B311" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B312" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B313" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B314" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B315" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B316" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B317" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B318" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B319" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B320" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B321" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B322" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B323" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B325" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B326" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B327" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B329" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B330" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B331" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B332" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B333" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B334" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B335" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B336" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B337" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B338" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B339" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B341" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B342" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B343" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B344" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B345" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B346" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B349" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B350" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B351" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B352" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B353" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B354" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B355" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B356" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B357" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B358" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B359" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B360" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B361" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B362" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B363" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B364" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B365" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B366" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B370" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B371" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B372" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B373" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B374" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B375" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B376" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B377" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B378" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B379" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B380" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B381" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B382" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B383" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B384" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B385" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B386" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B387" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B388" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B389" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B390" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B391" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B394" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B395" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B396" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B397" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B398" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B399" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B401" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B402" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B403" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B404" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B405" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B406" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B407" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B408" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B409" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B410" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B412" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B411" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B413" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B414" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B415" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B418" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B419" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B420" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B421" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B422" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B423" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B426" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B427" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B428" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B429" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B430" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B431" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B432" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B433" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B434" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B435" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B436" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B437" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B438" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B439" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B440" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B441" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B442" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B443" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B444" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B445" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B446" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B447" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B448" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B449" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B450" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B451" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B452" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B453" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B454" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B455" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B456" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B457" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B458" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B459" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B460" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B461" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B462" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B463" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B464" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B465" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B467" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B466" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B468" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B469" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B470" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B471" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B472" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B473" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B474" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B475" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B476" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B477" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B478" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B485" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B484" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B483" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B482" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B481" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B480" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B479" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B488" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B489" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B490" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B491" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B492" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B493" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B494" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B497" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B495" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B496" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B369" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B294" r:id="rId257" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B295" r:id="rId258" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B296" r:id="rId259" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B297" r:id="rId260" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B298" r:id="rId261" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B299" r:id="rId262" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B300" r:id="rId263" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B301" r:id="rId264" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B302" r:id="rId265" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B303" r:id="rId266" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B304" r:id="rId267" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B307" r:id="rId268" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B308" r:id="rId269" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B309" r:id="rId270" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B310" r:id="rId271" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B311" r:id="rId272" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B312" r:id="rId273" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B313" r:id="rId274" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B314" r:id="rId275" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B315" r:id="rId276" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B316" r:id="rId277" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B317" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B318" r:id="rId279" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B319" r:id="rId280" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B320" r:id="rId281" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B321" r:id="rId282" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B322" r:id="rId283" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B323" r:id="rId284" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B324" r:id="rId285" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B326" r:id="rId286" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B327" r:id="rId287" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B328" r:id="rId288" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B330" r:id="rId289" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B331" r:id="rId290" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B332" r:id="rId291" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B333" r:id="rId292" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B334" r:id="rId293" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B335" r:id="rId294" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B336" r:id="rId295" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B337" r:id="rId296" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B338" r:id="rId297" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B339" r:id="rId298" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B340" r:id="rId299" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B342" r:id="rId300" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B343" r:id="rId301" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B344" r:id="rId302" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B345" r:id="rId303" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B346" r:id="rId304" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B347" r:id="rId305" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B350" r:id="rId306" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B351" r:id="rId307" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B352" r:id="rId308" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B353" r:id="rId309" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B354" r:id="rId310" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B355" r:id="rId311" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B356" r:id="rId312" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B357" r:id="rId313" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B358" r:id="rId314" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B359" r:id="rId315" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B360" r:id="rId316" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B361" r:id="rId317" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B362" r:id="rId318" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B363" r:id="rId319" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B364" r:id="rId320" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B365" r:id="rId321" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B366" r:id="rId322" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B367" r:id="rId323" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B371" r:id="rId324" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B372" r:id="rId325" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B373" r:id="rId326" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B374" r:id="rId327" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B375" r:id="rId328" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B376" r:id="rId329" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B377" r:id="rId330" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B378" r:id="rId331" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B379" r:id="rId332" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B380" r:id="rId333" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B381" r:id="rId334" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B382" r:id="rId335" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B383" r:id="rId336" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B384" r:id="rId337" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B385" r:id="rId338" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B386" r:id="rId339" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B387" r:id="rId340" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B388" r:id="rId341" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B389" r:id="rId342" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B390" r:id="rId343" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B391" r:id="rId344" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B392" r:id="rId345" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B395" r:id="rId346" xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B396" r:id="rId347" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B397" r:id="rId348" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B398" r:id="rId349" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B399" r:id="rId350" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B400" r:id="rId351" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B402" r:id="rId352" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B403" r:id="rId353" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B404" r:id="rId354" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B405" r:id="rId355" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B406" r:id="rId356" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B407" r:id="rId357" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B408" r:id="rId358" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B409" r:id="rId359" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B410" r:id="rId360" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B411" r:id="rId361" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B413" r:id="rId362" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B412" r:id="rId363" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B414" r:id="rId364" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B415" r:id="rId365" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B416" r:id="rId366" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B419" r:id="rId367" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B420" r:id="rId368" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B421" r:id="rId369" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B422" r:id="rId370" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B423" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B424" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B427" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B428" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B429" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B430" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B431" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B432" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B433" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B434" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B435" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B436" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B437" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B438" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B439" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B440" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B441" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B442" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B443" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B444" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B445" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B446" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B447" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B448" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B449" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B450" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B451" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B452" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B453" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B454" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B455" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B456" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B457" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B458" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B459" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B460" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B461" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B462" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B463" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B464" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B465" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B466" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B468" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B467" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B469" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B470" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B471" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B472" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B473" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B474" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B475" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B476" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B477" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B478" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B479" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B486" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B485" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B484" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B483" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B482" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B481" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B480" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B489" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B490" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B491" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B492" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B493" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B494" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B495" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B498" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B496" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B497" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B213" r:id="rId446" xr:uid="{DF4E5319-F59D-4C13-8A23-3E041980DFAF}"/>
@@ -7818,16 +7841,17 @@
     <hyperlink ref="B229" r:id="rId452" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
     <hyperlink ref="B235" r:id="rId453" xr:uid="{A4AF231A-1112-4F03-9A28-AF0D0CA49382}"/>
     <hyperlink ref="B240" r:id="rId454" xr:uid="{26AF757B-5F3D-434C-B27B-0125960904B5}"/>
-    <hyperlink ref="B324" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
-    <hyperlink ref="B328" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
-    <hyperlink ref="B340" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
+    <hyperlink ref="B325" r:id="rId455" xr:uid="{5E90D818-501C-4E61-B443-E062072DFCA2}"/>
+    <hyperlink ref="B329" r:id="rId456" xr:uid="{AFA4A056-B723-4AB3-9153-0CC7FBCA9ED5}"/>
+    <hyperlink ref="B341" r:id="rId457" xr:uid="{F8CC22D8-AF7C-48B1-8C17-A071BF5C7F07}"/>
     <hyperlink ref="B185" r:id="rId458" xr:uid="{AEB61F80-6C73-454E-98EC-F97D434F5EB5}"/>
-    <hyperlink ref="B392" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
-    <hyperlink ref="B393" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
-    <hyperlink ref="B400" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
+    <hyperlink ref="B393" r:id="rId459" xr:uid="{FF5FD771-6B03-42F1-BD02-B7B19A3A0362}"/>
+    <hyperlink ref="B394" r:id="rId460" xr:uid="{AF14A62A-C14A-4BBC-950D-CDB33CBB158B}"/>
+    <hyperlink ref="B401" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
     <hyperlink ref="B252" r:id="rId462" xr:uid="{0EDEAD3A-F3F0-4D9B-BF0D-E0DDAE13C611}"/>
+    <hyperlink ref="B293" r:id="rId463" xr:uid="{127345A9-71F3-49D6-AB7A-BF4305D0F725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId463"/>
+  <pageSetup orientation="portrait" r:id="rId464"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AADDFA9-1DC9-4851-A85D-A65EC52B5BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF1112-60D9-4440-A9CC-0B5D0DFA77F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2068,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5244,8 +5244,8 @@
       <c r="B297" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C297" s="4" t="s">
-        <v>4</v>
+      <c r="C297" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF1112-60D9-4440-A9CC-0B5D0DFA77F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E33C0-C004-4981-B455-5B9CBE464148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2069,7 +2069,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5255,8 +5255,8 @@
       <c r="B298" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
+      <c r="C298" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="21">
@@ -5266,8 +5266,8 @@
       <c r="B299" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>4</v>
+      <c r="C299" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E33C0-C004-4981-B455-5B9CBE464148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D528362-7920-4AAC-912B-5D4C20C5F01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="500">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1522,6 +1522,9 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>Hard, Must revise</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5255,7 +5258,7 @@
       <c r="B298" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C298" s="11" t="s">
+      <c r="C298" s="21" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5310,8 +5313,11 @@
       <c r="B303" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
+      <c r="C303" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D303" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D528362-7920-4AAC-912B-5D4C20C5F01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EE37F-1E21-42DF-AC0F-F729D39FF164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2071,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6545,8 +6545,8 @@
       <c r="B419" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
+      <c r="C419" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EE37F-1E21-42DF-AC0F-F729D39FF164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2687B-774A-46FF-8C8F-B84111CB4C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2072,7 +2072,7 @@
   <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6556,8 +6556,8 @@
       <c r="B420" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
+      <c r="C420" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E2687B-774A-46FF-8C8F-B84111CB4C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACBE3F0-23E1-4252-BD22-F3464C845458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="501">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1525,6 +1525,9 @@
   </si>
   <si>
     <t>Hard, Must revise</t>
+  </si>
+  <si>
+    <t>No. of ways. Space : O(N) Time : O(MN)</t>
   </si>
 </sst>
 </file>
@@ -2071,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6530,15 +6533,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" spans="1:4" ht="21">
       <c r="B417" s="7"/>
       <c r="C417" s="4"/>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" spans="1:4" ht="21">
       <c r="B418" s="7"/>
       <c r="C418" s="4"/>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" spans="1:4" ht="21">
       <c r="A419" s="8" t="s">
         <v>386</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" spans="1:4" ht="21">
       <c r="A420" s="8" t="s">
         <v>386</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" spans="1:4" ht="21">
       <c r="A421" s="8" t="s">
         <v>386</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" spans="1:4" ht="21">
       <c r="A422" s="8" t="s">
         <v>386</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" spans="1:4" ht="21">
       <c r="A423" s="8" t="s">
         <v>386</v>
       </c>
@@ -6593,37 +6596,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" spans="1:4" ht="21">
       <c r="A424" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
+      <c r="C424" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="21">
       <c r="B425" s="7"/>
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" spans="1:4" ht="21">
       <c r="B426" s="7"/>
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" spans="1:4" ht="21">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
+      <c r="C427" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D427" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="21">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" spans="1:4" ht="21">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" spans="1:4" ht="21">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" spans="1:4" ht="21">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
@@ -6667,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" spans="1:4" ht="21">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACBE3F0-23E1-4252-BD22-F3464C845458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AC08C-EE44-47DB-9F81-0127F098DA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="502">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1528,6 +1528,9 @@
   </si>
   <si>
     <t>No. of ways. Space : O(N) Time : O(MN)</t>
+  </si>
+  <si>
+    <t>Coin Change Problem : Minimim no. of coins</t>
   </si>
 </sst>
 </file>
@@ -2072,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C427" sqref="C427"/>
+      <selection activeCell="B428" sqref="B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6634,10 +6637,10 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
+        <v>501</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="21">
@@ -6645,7 +6648,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6656,7 +6659,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6667,7 +6670,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6678,7 +6681,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6689,7 +6692,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6700,7 +6703,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6711,7 +6714,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6722,7 +6725,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6733,7 +6736,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6744,7 +6747,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6755,7 +6758,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6766,7 +6769,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6777,7 +6780,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6788,7 +6791,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6799,7 +6802,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6810,7 +6813,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6821,7 +6824,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6832,7 +6835,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6843,7 +6846,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6854,7 +6857,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6865,7 +6868,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6876,7 +6879,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6887,7 +6890,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6898,7 +6901,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6909,7 +6912,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6920,7 +6923,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6931,7 +6934,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6942,7 +6945,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6953,7 +6956,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6964,7 +6967,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6975,7 +6978,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6986,7 +6989,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6997,7 +7000,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7008,7 +7011,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7019,7 +7022,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7030,7 +7033,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7041,7 +7044,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7052,7 +7055,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7063,7 +7066,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7074,7 +7077,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7085,7 +7088,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7096,7 +7099,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7107,7 +7110,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7118,7 +7121,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7129,7 +7132,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7140,7 +7143,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7151,7 +7154,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7162,7 +7165,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7173,7 +7176,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7184,7 +7187,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7195,7 +7198,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7206,7 +7209,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7217,7 +7220,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7228,7 +7231,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7239,7 +7242,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7250,7 +7253,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7261,7 +7264,7 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7272,38 +7275,38 @@
         <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="21">
+      <c r="A487" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B487" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C486" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" ht="21">
-      <c r="B487" s="7"/>
-      <c r="C487" s="4"/>
+      <c r="C487" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="488" spans="1:3" ht="21">
-      <c r="A488" s="8"/>
       <c r="B488" s="7"/>
       <c r="C488" s="4"/>
     </row>
     <row r="489" spans="1:3" ht="21">
-      <c r="A489" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B489" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A489" s="8"/>
+      <c r="B489" s="7"/>
+      <c r="C489" s="4"/>
     </row>
     <row r="490" spans="1:3" ht="21">
       <c r="A490" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>4</v>
@@ -7314,7 +7317,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7325,7 +7328,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7336,7 +7339,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7347,7 +7350,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7358,7 +7361,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7369,7 +7372,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7380,7 +7383,7 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -7391,9 +7394,20 @@
         <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="21">
+      <c r="A499" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B499" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C498" s="4" t="s">
+      <c r="C499" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7772,75 +7786,75 @@
     <hyperlink ref="B423" r:id="rId371" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
     <hyperlink ref="B424" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
     <hyperlink ref="B427" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B428" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B429" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B430" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B431" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B432" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B433" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B434" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B435" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B436" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B437" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B438" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B439" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B440" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B441" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B442" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B443" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B444" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B445" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B446" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B447" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B448" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B449" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B450" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B451" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B452" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B453" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B454" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B455" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B456" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B457" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B458" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B459" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B460" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B461" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B462" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B463" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B464" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B465" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B466" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B468" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B467" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B469" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B470" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B471" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B472" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B473" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B474" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B475" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B476" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B477" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B478" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B479" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B486" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B485" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B484" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B483" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B482" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B481" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B480" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B489" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B490" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B491" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B492" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B493" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B494" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B495" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B498" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B496" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B497" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B429" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B430" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B431" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B432" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B433" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B434" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B435" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B436" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B437" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B438" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B439" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B440" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B441" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B442" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B443" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B444" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B445" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B446" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B447" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B448" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B449" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B450" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B451" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B452" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B453" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B454" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B455" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B456" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B457" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B458" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B459" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B460" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B461" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B462" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B463" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B464" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B465" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B466" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B467" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B469" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B468" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B470" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B471" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B472" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B473" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B474" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B475" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B476" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B477" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B478" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B479" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B480" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B487" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B486" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B485" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B484" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B483" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B482" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B481" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B490" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B491" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B492" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B493" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B494" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B495" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B496" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B499" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B497" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B498" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7862,8 +7876,9 @@
     <hyperlink ref="B401" r:id="rId461" xr:uid="{3DC6B9E0-05DC-4888-815A-CDBB63BDF598}"/>
     <hyperlink ref="B252" r:id="rId462" xr:uid="{0EDEAD3A-F3F0-4D9B-BF0D-E0DDAE13C611}"/>
     <hyperlink ref="B293" r:id="rId463" xr:uid="{127345A9-71F3-49D6-AB7A-BF4305D0F725}"/>
+    <hyperlink ref="B428" r:id="rId464" xr:uid="{C4A51DBE-F043-4951-B51A-E48796555D08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId464"/>
+  <pageSetup orientation="portrait" r:id="rId465"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78AC08C-EE44-47DB-9F81-0127F098DA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FCEF2-ACD3-4644-9531-05CF05AC8A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6650,8 +6650,8 @@
       <c r="B429" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
+      <c r="C429" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FCEF2-ACD3-4644-9531-05CF05AC8A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6BA78-F931-4861-97D1-4F8D006246EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1531,6 +1531,9 @@
   </si>
   <si>
     <t>Coin Change Problem : Minimim no. of coins</t>
+  </si>
+  <si>
+    <t>Minimum Number of Taps to Open to Water a Garden</t>
   </si>
 </sst>
 </file>
@@ -2075,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+      <selection activeCell="B430" sqref="B430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6659,10 +6662,10 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
+        <v>502</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="21">
@@ -6670,7 +6673,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6681,7 +6684,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6692,7 +6695,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6703,7 +6706,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6714,7 +6717,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6725,7 +6728,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6736,7 +6739,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6747,7 +6750,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6758,7 +6761,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6769,7 +6772,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6780,7 +6783,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6791,7 +6794,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6802,7 +6805,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6813,7 +6816,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6824,7 +6827,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6835,7 +6838,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6846,7 +6849,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6857,7 +6860,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6868,7 +6871,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6879,7 +6882,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6890,7 +6893,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6901,7 +6904,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6912,7 +6915,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6923,7 +6926,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6934,7 +6937,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6945,7 +6948,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6956,7 +6959,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6967,7 +6970,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6978,7 +6981,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6989,7 +6992,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -7000,7 +7003,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7011,7 +7014,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7022,7 +7025,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7033,7 +7036,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7044,7 +7047,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7055,7 +7058,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7066,7 +7069,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7077,7 +7080,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7088,7 +7091,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7099,7 +7102,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7110,7 +7113,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7121,7 +7124,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7132,7 +7135,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7143,7 +7146,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7154,7 +7157,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7165,7 +7168,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7176,7 +7179,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7187,7 +7190,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7198,7 +7201,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7209,7 +7212,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7220,7 +7223,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7231,7 +7234,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7242,7 +7245,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7253,7 +7256,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7264,7 +7267,7 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7275,7 +7278,7 @@
         <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7286,38 +7289,38 @@
         <v>392</v>
       </c>
       <c r="B487" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="21">
+      <c r="A488" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B488" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C487" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" ht="21">
-      <c r="B488" s="7"/>
-      <c r="C488" s="4"/>
+      <c r="C488" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="489" spans="1:3" ht="21">
-      <c r="A489" s="8"/>
       <c r="B489" s="7"/>
       <c r="C489" s="4"/>
     </row>
     <row r="490" spans="1:3" ht="21">
-      <c r="A490" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B490" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A490" s="8"/>
+      <c r="B490" s="7"/>
+      <c r="C490" s="4"/>
     </row>
     <row r="491" spans="1:3" ht="21">
       <c r="A491" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>4</v>
@@ -7328,7 +7331,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7339,7 +7342,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7350,7 +7353,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7361,7 +7364,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7372,7 +7375,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7383,7 +7386,7 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -7394,7 +7397,7 @@
         <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -7405,9 +7408,20 @@
         <v>452</v>
       </c>
       <c r="B499" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="21">
+      <c r="A500" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B500" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C499" s="4" t="s">
+      <c r="C500" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7787,74 +7801,74 @@
     <hyperlink ref="B424" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
     <hyperlink ref="B427" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
     <hyperlink ref="B429" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B430" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B431" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B432" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B433" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B434" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B435" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B436" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B437" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B438" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B439" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B440" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B441" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B442" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B443" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B444" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B445" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B446" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B447" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B448" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B449" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B450" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B451" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B452" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B453" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B454" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B455" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B456" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B457" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B458" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B459" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B460" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B461" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B462" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B463" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B464" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B465" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B466" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B467" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B469" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B468" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B470" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B471" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B472" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B473" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B474" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B475" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B476" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B477" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B478" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B479" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B480" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B487" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B486" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B485" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B484" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B483" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B482" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B481" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B490" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B491" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B492" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B493" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B494" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B495" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B496" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B499" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B497" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B498" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B431" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B432" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B433" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B434" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B435" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B436" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B437" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B438" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B439" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B440" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B441" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B442" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B443" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B444" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B445" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B446" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B447" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B448" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B449" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B450" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B451" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B452" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B453" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B454" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B455" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B456" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B457" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B458" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B459" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B460" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B461" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B462" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B463" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B464" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B465" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B466" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B467" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B468" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B470" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B469" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B471" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B472" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B473" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B474" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B475" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B476" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B477" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B478" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B479" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B480" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B481" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B488" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B487" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B486" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B485" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B484" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B483" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B482" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B491" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B492" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B493" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B494" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B495" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B496" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B497" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B500" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B498" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B499" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7877,8 +7891,9 @@
     <hyperlink ref="B252" r:id="rId462" xr:uid="{0EDEAD3A-F3F0-4D9B-BF0D-E0DDAE13C611}"/>
     <hyperlink ref="B293" r:id="rId463" xr:uid="{127345A9-71F3-49D6-AB7A-BF4305D0F725}"/>
     <hyperlink ref="B428" r:id="rId464" xr:uid="{C4A51DBE-F043-4951-B51A-E48796555D08}"/>
+    <hyperlink ref="B430" r:id="rId465" xr:uid="{910FE4FA-F82F-4691-9E2F-22E8206DA592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId465"/>
+  <pageSetup orientation="portrait" r:id="rId466"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6BA78-F931-4861-97D1-4F8D006246EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B8041-4285-4069-B520-AEB66A0E3E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="504">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>Minimum Number of Taps to Open to Water a Garden</t>
+  </si>
+  <si>
+    <t>Count minimum number of fountains to be activated to cover the entire garden</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1762,6 +1765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2078,10 +2084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B430" sqref="B430"/>
+      <selection activeCell="B432" sqref="B432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6672,11 +6678,11 @@
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B431" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
+      <c r="B431" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="21">
@@ -6684,7 +6690,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6695,7 +6701,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6706,7 +6712,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6717,7 +6723,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6728,7 +6734,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6739,7 +6745,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6750,7 +6756,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6761,7 +6767,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6772,7 +6778,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6783,7 +6789,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6794,7 +6800,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6805,7 +6811,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6816,7 +6822,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6827,7 +6833,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6838,7 +6844,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6849,7 +6855,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6860,7 +6866,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6871,7 +6877,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6882,7 +6888,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6893,7 +6899,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6904,7 +6910,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6915,7 +6921,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6926,7 +6932,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6937,7 +6943,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6948,7 +6954,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6959,7 +6965,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6970,7 +6976,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6981,7 +6987,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6992,7 +6998,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -7003,7 +7009,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7014,7 +7020,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7025,7 +7031,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7036,7 +7042,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7047,7 +7053,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7058,7 +7064,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7069,7 +7075,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7080,7 +7086,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7091,7 +7097,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7102,7 +7108,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7113,7 +7119,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7124,7 +7130,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7135,7 +7141,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7146,7 +7152,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7157,7 +7163,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7168,7 +7174,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7179,7 +7185,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7190,7 +7196,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7201,7 +7207,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7212,7 +7218,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7223,7 +7229,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7234,7 +7240,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7245,7 +7251,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7256,7 +7262,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7267,7 +7273,7 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7278,7 +7284,7 @@
         <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7289,7 +7295,7 @@
         <v>392</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7300,38 +7306,38 @@
         <v>392</v>
       </c>
       <c r="B488" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="21">
+      <c r="A489" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B489" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C488" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" ht="21">
-      <c r="B489" s="7"/>
-      <c r="C489" s="4"/>
+      <c r="C489" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="490" spans="1:3" ht="21">
-      <c r="A490" s="8"/>
       <c r="B490" s="7"/>
       <c r="C490" s="4"/>
     </row>
     <row r="491" spans="1:3" ht="21">
-      <c r="A491" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B491" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A491" s="8"/>
+      <c r="B491" s="7"/>
+      <c r="C491" s="4"/>
     </row>
     <row r="492" spans="1:3" ht="21">
       <c r="A492" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>4</v>
@@ -7342,7 +7348,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7353,7 +7359,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7364,7 +7370,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7375,7 +7381,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7386,7 +7392,7 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -7397,7 +7403,7 @@
         <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -7408,7 +7414,7 @@
         <v>452</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>4</v>
@@ -7419,9 +7425,20 @@
         <v>452</v>
       </c>
       <c r="B500" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" ht="21">
+      <c r="A501" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B501" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C500" s="4" t="s">
+      <c r="C501" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7801,74 +7818,74 @@
     <hyperlink ref="B424" r:id="rId372" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
     <hyperlink ref="B427" r:id="rId373" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
     <hyperlink ref="B429" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B431" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B432" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B433" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B434" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B435" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B436" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B437" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B438" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B439" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B440" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B441" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B442" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B443" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B444" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B445" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B446" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B447" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B448" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B449" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B450" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B451" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B452" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B453" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B454" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B455" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B456" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B457" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B458" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B459" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B460" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B461" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B462" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B463" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B464" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B465" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B466" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B467" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B468" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B470" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B469" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B471" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B472" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B473" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B474" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B475" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B476" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B477" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B478" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B479" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B480" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B481" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B488" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B487" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B486" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B485" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B484" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B483" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B482" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B491" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B492" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B493" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B494" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B495" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B496" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B497" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B500" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B498" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B499" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B432" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B433" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B434" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B435" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B436" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B437" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B438" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B439" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B440" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B441" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B442" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B443" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B444" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B445" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B446" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B447" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B448" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B449" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B450" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B451" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B452" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B453" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B454" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B455" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B456" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B457" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B458" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B459" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B460" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B461" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B462" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B463" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B464" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B465" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B466" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B467" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B468" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B469" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B471" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B470" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B472" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B473" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B474" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B475" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B476" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B477" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B478" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B479" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B480" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B481" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B482" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B489" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B488" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B487" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B486" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B485" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B484" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B483" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B492" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B493" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B494" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B495" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B496" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B497" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B498" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B501" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B499" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B500" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7892,8 +7909,9 @@
     <hyperlink ref="B293" r:id="rId463" xr:uid="{127345A9-71F3-49D6-AB7A-BF4305D0F725}"/>
     <hyperlink ref="B428" r:id="rId464" xr:uid="{C4A51DBE-F043-4951-B51A-E48796555D08}"/>
     <hyperlink ref="B430" r:id="rId465" xr:uid="{910FE4FA-F82F-4691-9E2F-22E8206DA592}"/>
+    <hyperlink ref="B431" r:id="rId466" xr:uid="{7765BDB0-9A3B-4694-9899-1513A0FC9809}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId466"/>
+  <pageSetup orientation="portrait" r:id="rId467"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B8041-4285-4069-B520-AEB66A0E3E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B452C1-2D78-4D5D-B941-CB2E722CB6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B432" sqref="B432"/>
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6692,8 +6692,8 @@
       <c r="B432" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
+      <c r="C432" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B452C1-2D78-4D5D-B941-CB2E722CB6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0D2BF-AF3E-4F28-915A-5D0D6DDAC722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2086,7 +2086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
@@ -6703,8 +6703,8 @@
       <c r="B433" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
+      <c r="C433" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0D2BF-AF3E-4F28-915A-5D0D6DDAC722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6F248-9296-445A-BBFC-89CE14DDEA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2087,7 +2087,7 @@
   <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B433" sqref="B433"/>
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6714,8 +6714,8 @@
       <c r="B434" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
+      <c r="C434" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6F248-9296-445A-BBFC-89CE14DDEA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BD42C-70BF-41AA-8D22-4C4DFEA6A628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1537,6 +1537,9 @@
   </si>
   <si>
     <t>Count minimum number of fountains to be activated to cover the entire garden</t>
+  </si>
+  <si>
+    <t>Number of Good Pairs</t>
   </si>
 </sst>
 </file>
@@ -2084,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6712,7 +6715,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>397</v>
+        <v>504</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>464</v>
@@ -6723,10 +6726,10 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
+        <v>397</v>
+      </c>
+      <c r="C435" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
@@ -6734,7 +6737,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6745,7 +6748,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6756,7 +6759,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6767,7 +6770,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6778,7 +6781,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6789,7 +6792,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6800,7 +6803,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6811,7 +6814,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6822,7 +6825,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6833,7 +6836,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6844,7 +6847,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6855,7 +6858,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6866,7 +6869,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6877,7 +6880,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6888,7 +6891,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6899,7 +6902,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6910,7 +6913,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6921,7 +6924,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6932,7 +6935,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6943,7 +6946,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6954,7 +6957,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6965,7 +6968,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6976,7 +6979,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6987,7 +6990,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6998,7 +7001,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -7009,7 +7012,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7020,7 +7023,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7031,7 +7034,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7042,7 +7045,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7053,7 +7056,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7064,7 +7067,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7075,7 +7078,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7086,7 +7089,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7097,7 +7100,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7108,7 +7111,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7119,7 +7122,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7130,7 +7133,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7141,7 +7144,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7152,7 +7155,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7163,7 +7166,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7174,7 +7177,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7185,7 +7188,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7196,7 +7199,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7207,7 +7210,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7218,7 +7221,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7229,7 +7232,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7240,7 +7243,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7251,7 +7254,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7262,7 +7265,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7273,7 +7276,7 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7284,7 +7287,7 @@
         <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7295,7 +7298,7 @@
         <v>392</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7306,7 +7309,7 @@
         <v>392</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7317,38 +7320,38 @@
         <v>392</v>
       </c>
       <c r="B489" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="21">
+      <c r="A490" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B490" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C489" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" ht="21">
-      <c r="B490" s="7"/>
-      <c r="C490" s="4"/>
+      <c r="C490" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="491" spans="1:3" ht="21">
-      <c r="A491" s="8"/>
       <c r="B491" s="7"/>
       <c r="C491" s="4"/>
     </row>
     <row r="492" spans="1:3" ht="21">
-      <c r="A492" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B492" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A492" s="8"/>
+      <c r="B492" s="7"/>
+      <c r="C492" s="4"/>
     </row>
     <row r="493" spans="1:3" ht="21">
       <c r="A493" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
@@ -7359,7 +7362,7 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7370,7 +7373,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7381,7 +7384,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7392,7 +7395,7 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -7403,7 +7406,7 @@
         <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -7414,7 +7417,7 @@
         <v>452</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>4</v>
@@ -7425,7 +7428,7 @@
         <v>452</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>4</v>
@@ -7436,9 +7439,20 @@
         <v>452</v>
       </c>
       <c r="B501" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" ht="21">
+      <c r="A502" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B502" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C501" s="4" t="s">
+      <c r="C502" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7820,72 +7834,72 @@
     <hyperlink ref="B429" r:id="rId374" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
     <hyperlink ref="B432" r:id="rId375" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
     <hyperlink ref="B433" r:id="rId376" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B434" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B435" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B436" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B437" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B438" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B439" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B440" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B441" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B442" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B443" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B444" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B445" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B446" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B447" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B448" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B449" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B450" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B451" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B452" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B453" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B454" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B455" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B456" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B457" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B458" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B459" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B460" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B461" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B462" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B463" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B464" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B465" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B466" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B467" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B468" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B469" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B471" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B470" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B472" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B473" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B474" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B475" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B476" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B477" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B478" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B479" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B480" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B481" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B482" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B489" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B488" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B487" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B486" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B485" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B484" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B483" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B492" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B493" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B494" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B495" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B496" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B497" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B498" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B501" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B499" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B500" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B435" r:id="rId377" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B436" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B437" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B438" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B439" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B440" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B441" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B442" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B443" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B444" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B445" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B446" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B447" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B448" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B449" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B450" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B451" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B452" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B453" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B454" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B455" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B456" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B457" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B458" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B459" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B460" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B461" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B462" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B463" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B464" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B465" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B466" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B467" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B468" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B469" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B470" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B472" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B471" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B473" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B474" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B475" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B476" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B477" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B478" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B479" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B480" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B481" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B482" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B483" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B490" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B489" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B488" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B487" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B486" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B485" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B484" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B493" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B494" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B495" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B496" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B497" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B498" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B499" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B502" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B500" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B501" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
@@ -7910,8 +7924,9 @@
     <hyperlink ref="B428" r:id="rId464" xr:uid="{C4A51DBE-F043-4951-B51A-E48796555D08}"/>
     <hyperlink ref="B430" r:id="rId465" xr:uid="{910FE4FA-F82F-4691-9E2F-22E8206DA592}"/>
     <hyperlink ref="B431" r:id="rId466" xr:uid="{7765BDB0-9A3B-4694-9899-1513A0FC9809}"/>
+    <hyperlink ref="B434" r:id="rId467" xr:uid="{BA1143B7-CB98-4B8C-942F-0EFAF8EE5902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId467"/>
+  <pageSetup orientation="portrait" r:id="rId468"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BD42C-70BF-41AA-8D22-4C4DFEA6A628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4416F-14EF-48D4-9B17-A07B31525CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B434" sqref="B434"/>
+      <selection activeCell="C437" sqref="C437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6750,8 +6750,8 @@
       <c r="B437" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
+      <c r="C437" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4416F-14EF-48D4-9B17-A07B31525CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C4DE5-AAA7-4372-BC23-8EC3050493E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2087,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C437" sqref="C437"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6761,19 +6761,17 @@
       <c r="B438" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
+      <c r="C438" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="19.5">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B439" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
+      <c r="B439" s="10"/>
+      <c r="C439" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
@@ -6781,7 +6779,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6792,7 +6790,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6803,7 +6801,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6814,7 +6812,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6825,7 +6823,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6836,7 +6834,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6847,7 +6845,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6858,7 +6856,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6869,7 +6867,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6880,7 +6878,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6891,7 +6889,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6902,7 +6900,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6913,7 +6911,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6924,7 +6922,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6935,7 +6933,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6946,7 +6944,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6957,7 +6955,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6968,7 +6966,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6979,7 +6977,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6990,7 +6988,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -7001,7 +6999,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -7012,7 +7010,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -7023,7 +7021,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -7034,7 +7032,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -7045,7 +7043,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7056,7 +7054,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7067,7 +7065,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7078,7 +7076,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7089,7 +7087,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7100,7 +7098,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7111,7 +7109,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>4</v>
@@ -7122,7 +7120,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>4</v>
@@ -7133,7 +7131,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7144,7 +7142,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7155,7 +7153,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7166,7 +7164,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7177,7 +7175,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7188,7 +7186,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7199,7 +7197,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7210,7 +7208,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7221,7 +7219,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7232,7 +7230,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7243,7 +7241,7 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>4</v>
@@ -7254,7 +7252,7 @@
         <v>392</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
@@ -7265,7 +7263,7 @@
         <v>392</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
@@ -7276,7 +7274,7 @@
         <v>392</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
@@ -7287,7 +7285,7 @@
         <v>392</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
@@ -7298,7 +7296,7 @@
         <v>392</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>4</v>
@@ -7309,7 +7307,7 @@
         <v>392</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>4</v>
@@ -7320,7 +7318,7 @@
         <v>392</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>4</v>
@@ -7331,38 +7329,38 @@
         <v>392</v>
       </c>
       <c r="B490" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="21">
+      <c r="A491" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B491" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C490" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" ht="21">
-      <c r="B491" s="7"/>
-      <c r="C491" s="4"/>
+      <c r="C491" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="492" spans="1:3" ht="21">
-      <c r="A492" s="8"/>
       <c r="B492" s="7"/>
       <c r="C492" s="4"/>
     </row>
     <row r="493" spans="1:3" ht="21">
-      <c r="A493" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B493" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A493" s="8"/>
+      <c r="B493" s="7"/>
+      <c r="C493" s="4"/>
     </row>
     <row r="494" spans="1:3" ht="21">
       <c r="A494" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>4</v>
@@ -7373,7 +7371,7 @@
         <v>452</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
@@ -7384,7 +7382,7 @@
         <v>452</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>4</v>
@@ -7395,7 +7393,7 @@
         <v>452</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>4</v>
@@ -7406,7 +7404,7 @@
         <v>452</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>4</v>
@@ -7417,7 +7415,7 @@
         <v>452</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>4</v>
@@ -7428,7 +7426,7 @@
         <v>452</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>4</v>
@@ -7439,7 +7437,7 @@
         <v>452</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>4</v>
@@ -7450,9 +7448,20 @@
         <v>452</v>
       </c>
       <c r="B502" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" ht="21">
+      <c r="A503" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B503" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C502" s="4" t="s">
+      <c r="C503" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7838,68 +7847,68 @@
     <hyperlink ref="B436" r:id="rId378" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
     <hyperlink ref="B437" r:id="rId379" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
     <hyperlink ref="B438" r:id="rId380" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B439" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B440" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B441" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B442" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B443" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B444" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B445" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B446" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B447" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B448" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B449" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B450" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B451" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B452" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B453" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B454" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B455" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B456" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B457" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B458" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B459" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B460" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B461" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B462" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B463" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B464" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B465" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B466" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B467" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B468" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B469" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B470" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B472" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B471" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B473" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B474" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B475" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B476" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B477" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B478" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B479" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B480" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B481" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B482" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B483" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B490" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B489" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B488" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B487" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B486" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B485" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B484" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B493" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B494" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B495" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B496" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B497" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B498" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B499" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B502" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B500" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B501" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B440" r:id="rId381" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B441" r:id="rId382" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B442" r:id="rId383" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B443" r:id="rId384" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B444" r:id="rId385" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B445" r:id="rId386" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B446" r:id="rId387" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B447" r:id="rId388" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B448" r:id="rId389" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B449" r:id="rId390" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B450" r:id="rId391" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B451" r:id="rId392" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B452" r:id="rId393" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B453" r:id="rId394" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B454" r:id="rId395" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B455" r:id="rId396" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B456" r:id="rId397" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B457" r:id="rId398" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B458" r:id="rId399" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B459" r:id="rId400" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B460" r:id="rId401" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B461" r:id="rId402" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B462" r:id="rId403" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B463" r:id="rId404" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B464" r:id="rId405" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B465" r:id="rId406" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B466" r:id="rId407" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B467" r:id="rId408" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B468" r:id="rId409" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B469" r:id="rId410" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B470" r:id="rId411" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B471" r:id="rId412" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B473" r:id="rId413" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B472" r:id="rId414" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B474" r:id="rId415" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B475" r:id="rId416" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B476" r:id="rId417" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B477" r:id="rId418" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B478" r:id="rId419" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B479" r:id="rId420" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B480" r:id="rId421" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B481" r:id="rId422" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B482" r:id="rId423" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B483" r:id="rId424" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B484" r:id="rId425" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B491" r:id="rId426" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B490" r:id="rId427" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B489" r:id="rId428" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B488" r:id="rId429" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B487" r:id="rId430" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B486" r:id="rId431" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B485" r:id="rId432" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B494" r:id="rId433" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B495" r:id="rId434" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B496" r:id="rId435" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B497" r:id="rId436" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B498" r:id="rId437" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B499" r:id="rId438" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B500" r:id="rId439" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B503" r:id="rId440" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B501" r:id="rId441" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B502" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B370" r:id="rId443" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId444" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B39" r:id="rId445" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C4DE5-AAA7-4372-BC23-8EC3050493E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0525C54-C9C9-4635-B2C0-9CE4AD301C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="505">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+      <selection activeCell="B439" sqref="B439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6765,11 +6765,13 @@
         <v>464</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="19.5">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B439" s="10"/>
+      <c r="B439" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="C439" s="11" t="s">
         <v>464</v>
       </c>
@@ -7934,8 +7936,9 @@
     <hyperlink ref="B430" r:id="rId465" xr:uid="{910FE4FA-F82F-4691-9E2F-22E8206DA592}"/>
     <hyperlink ref="B431" r:id="rId466" xr:uid="{7765BDB0-9A3B-4694-9899-1513A0FC9809}"/>
     <hyperlink ref="B434" r:id="rId467" xr:uid="{BA1143B7-CB98-4B8C-942F-0EFAF8EE5902}"/>
+    <hyperlink ref="B439" r:id="rId468" xr:uid="{6354E507-9FB5-49B4-B00E-53B7EFEC981B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId468"/>
+  <pageSetup orientation="portrait" r:id="rId469"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0525C54-C9C9-4635-B2C0-9CE4AD301C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534B8A8-BEA4-4526-B352-0379A1926432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B439" sqref="B439"/>
+    <sheetView tabSelected="1" topLeftCell="A432" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6783,8 +6783,8 @@
       <c r="B440" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
+      <c r="C440" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D534B8A8-BEA4-4526-B352-0379A1926432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9046F-8B63-48E8-968A-7B6A77D02D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B441" sqref="B441"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6794,8 +6794,8 @@
       <c r="B441" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
+      <c r="C441" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9046F-8B63-48E8-968A-7B6A77D02D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89072931-89D7-4806-8AC4-7891AABEF5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B442" sqref="B442"/>
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6805,8 +6805,8 @@
       <c r="B442" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
+      <c r="C442" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89072931-89D7-4806-8AC4-7891AABEF5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C4289-F75E-4462-AB97-D5219C52A43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6816,8 +6816,8 @@
       <c r="B443" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
+      <c r="C443" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C4289-F75E-4462-AB97-D5219C52A43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CE9E9-ECA6-4340-936D-6BE1D12D8279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A430" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C444" sqref="C444"/>
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6827,8 +6827,8 @@
       <c r="B444" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
+      <c r="C444" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\Desktop\Data-Structures-and-Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARVIS\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899CE9E9-ECA6-4340-936D-6BE1D12D8279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74BAA1-1732-4928-8E50-CCB66EAEFD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2231,8 +2231,8 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>4</v>
+      <c r="C15" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARVIS\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74BAA1-1732-4928-8E50-CCB66EAEFD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3708689-1984-4AB5-B16E-DE2C817D0BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6838,8 +6838,8 @@
       <c r="B445" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
+      <c r="C445" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARVIS\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3708689-1984-4AB5-B16E-DE2C817D0BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1870AF0-7CB5-4E1F-A0EB-9B4E19A49C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+      <selection activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6849,8 +6849,8 @@
       <c r="B446" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
+      <c r="C446" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JARVIS\Desktop\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1870AF0-7CB5-4E1F-A0EB-9B4E19A49C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F422966-94CE-4912-96C3-BBF8BAFED1FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C447" sqref="C447"/>
+      <selection activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6860,8 +6860,8 @@
       <c r="B447" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>4</v>
+      <c r="C447" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
